--- a/docs/warning_rivers.xlsx
+++ b/docs/warning_rivers.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/water-safety/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978D88B-3E92-2F4E-9E00-9C1B1C30E2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC95947-9AC2-3841-8EC8-E73FF7AD751F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="warning_rivers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warning_rivers!$A$1:$AA$1077</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">warning_rivers!$A$1:$AA$1076</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5713" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5706" uniqueCount="1383">
   <si>
     <t>2005</t>
   </si>
@@ -3404,9 +3404,6 @@
   </si>
   <si>
     <t>望龍埤水域</t>
-  </si>
-  <si>
-    <t>除首揭特定區域、油羅溪、泰崗溪、上坪溪及新月沙灣高潮線向外延伸3公里內之水域以外，其他區域禁止水域遊憩活動。</t>
   </si>
   <si>
     <t>立霧溪</t>
@@ -4621,11 +4618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1077"/>
+  <dimension ref="A1:AA1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A699" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D710" sqref="D710"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A863" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L873" sqref="A873:XFD873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4644,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -5675,7 +5672,7 @@
         <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E32">
         <v>24.095007500000001</v>
@@ -6134,7 +6131,7 @@
         <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E47">
         <v>22.692324899999999</v>
@@ -6532,7 +6529,7 @@
         <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E60">
         <v>22.933208799999999</v>
@@ -8278,7 +8275,7 @@
         <v>193</v>
       </c>
       <c r="D117" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E117">
         <v>24.810634499999999</v>
@@ -8560,7 +8557,7 @@
         <v>207</v>
       </c>
       <c r="D126" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E126">
         <v>24.043049799999999</v>
@@ -8598,7 +8595,7 @@
         <v>209</v>
       </c>
       <c r="D127" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E127">
         <v>22.934084800000001</v>
@@ -9083,7 +9080,7 @@
         <v>230</v>
       </c>
       <c r="D143" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E143">
         <v>22.531672199999999</v>
@@ -11306,7 +11303,7 @@
         <v>324</v>
       </c>
       <c r="D218" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E218">
         <v>24.987943399999999</v>
@@ -11809,7 +11806,7 @@
         <v>351</v>
       </c>
       <c r="D234" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E234">
         <v>24.379677600000001</v>
@@ -14313,7 +14310,7 @@
         <v>453</v>
       </c>
       <c r="D319" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E319">
         <v>24.164148999999998</v>
@@ -15421,7 +15418,7 @@
         <v>498</v>
       </c>
       <c r="D360" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E360">
         <v>25.118888900000002</v>
@@ -15502,7 +15499,7 @@
         <v>502</v>
       </c>
       <c r="D363" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E363">
         <v>25.169734999999999</v>
@@ -15635,7 +15632,7 @@
         <v>508</v>
       </c>
       <c r="D368" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E368">
         <v>25.1885759</v>
@@ -20165,7 +20162,7 @@
         <v>693</v>
       </c>
       <c r="D542" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E542">
         <v>25.132590700000002</v>
@@ -20246,7 +20243,7 @@
         <v>698</v>
       </c>
       <c r="D545" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E545">
         <v>25.1250672</v>
@@ -20275,7 +20272,7 @@
         <v>699</v>
       </c>
       <c r="D546" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E546">
         <v>25.069658199999999</v>
@@ -20330,7 +20327,7 @@
         <v>702</v>
       </c>
       <c r="D548" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E548">
         <v>25.165324999999999</v>
@@ -20645,7 +20642,7 @@
         <v>718</v>
       </c>
       <c r="D560" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E560">
         <v>25.134901500000002</v>
@@ -22347,7 +22344,7 @@
         <v>809</v>
       </c>
       <c r="D625" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E625" t="s">
         <v>28</v>
@@ -24560,7 +24557,7 @@
         <v>904</v>
       </c>
       <c r="D710" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E710">
         <v>24.199398299999999</v>
@@ -24719,7 +24716,7 @@
         <v>913</v>
       </c>
       <c r="D716" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E716">
         <v>24.287486000000001</v>
@@ -24777,7 +24774,7 @@
         <v>917</v>
       </c>
       <c r="D718" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E718">
         <v>24.294800299999999</v>
@@ -25248,7 +25245,7 @@
         <v>942</v>
       </c>
       <c r="D736" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E736">
         <v>24.126391999999999</v>
@@ -25407,7 +25404,7 @@
         <v>949</v>
       </c>
       <c r="D742" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E742">
         <v>24.026333300000001</v>
@@ -25465,7 +25462,7 @@
         <v>953</v>
       </c>
       <c r="D744" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E744" t="s">
         <v>28</v>
@@ -25494,7 +25491,7 @@
         <v>955</v>
       </c>
       <c r="D745" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E745">
         <v>23.642138200000002</v>
@@ -25552,7 +25549,7 @@
         <v>958</v>
       </c>
       <c r="D747" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E747">
         <v>23.718204</v>
@@ -25584,7 +25581,7 @@
         <v>960</v>
       </c>
       <c r="D748" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E748">
         <v>23.7819641</v>
@@ -25616,7 +25613,7 @@
         <v>962</v>
       </c>
       <c r="D749" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E749">
         <v>23.6951</v>
@@ -25674,7 +25671,7 @@
         <v>965</v>
       </c>
       <c r="D751" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E751">
         <v>23.891942</v>
@@ -25758,7 +25755,7 @@
         <v>971</v>
       </c>
       <c r="D754" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E754">
         <v>23.601258399999999</v>
@@ -25995,7 +25992,7 @@
         <v>984</v>
       </c>
       <c r="D763" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E763" t="s">
         <v>28</v>
@@ -28702,7 +28699,7 @@
         <v>1120</v>
       </c>
       <c r="D867" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E867" t="s">
         <v>28</v>
@@ -28835,7 +28832,7 @@
         <v>1126</v>
       </c>
       <c r="D872" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E872">
         <v>24.776599999999998</v>
@@ -28858,28 +28855,34 @@
     </row>
     <row r="873" spans="2:12">
       <c r="B873" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C873" t="s">
         <v>1127</v>
       </c>
-      <c r="E873" t="s">
-        <v>28</v>
-      </c>
-      <c r="F873" t="s">
-        <v>28</v>
+      <c r="D873" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E873">
+        <v>24.1609856</v>
+      </c>
+      <c r="F873">
+        <v>121.60438739999999</v>
+      </c>
+      <c r="G873">
+        <v>1</v>
       </c>
       <c r="I873">
         <v>1</v>
       </c>
       <c r="J873" t="s">
-        <v>28</v>
+        <v>1128</v>
       </c>
       <c r="K873" t="s">
         <v>28</v>
       </c>
       <c r="L873" t="s">
-        <v>28</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="874" spans="2:12">
@@ -28887,31 +28890,25 @@
         <v>64</v>
       </c>
       <c r="C874" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D874" t="s">
-        <v>1349</v>
+        <v>1129</v>
       </c>
       <c r="E874">
-        <v>24.1609856</v>
+        <v>23.9360547</v>
       </c>
       <c r="F874">
-        <v>121.60438739999999</v>
+        <v>121.609118</v>
       </c>
       <c r="G874">
         <v>1</v>
       </c>
-      <c r="I874">
-        <v>1</v>
-      </c>
       <c r="J874" t="s">
-        <v>1129</v>
+        <v>28</v>
       </c>
       <c r="K874" t="s">
         <v>28</v>
       </c>
       <c r="L874" t="s">
-        <v>1129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="875" spans="2:12">
@@ -28922,10 +28919,10 @@
         <v>1130</v>
       </c>
       <c r="E875">
-        <v>23.9360547</v>
+        <v>23.755803</v>
       </c>
       <c r="F875">
-        <v>121.609118</v>
+        <v>121.42579499999999</v>
       </c>
       <c r="G875">
         <v>1</v>
@@ -28948,10 +28945,10 @@
         <v>1131</v>
       </c>
       <c r="E876">
-        <v>23.755803</v>
+        <v>23.978982999999999</v>
       </c>
       <c r="F876">
-        <v>121.42579499999999</v>
+        <v>121.47427190000001</v>
       </c>
       <c r="G876">
         <v>1</v>
@@ -28974,10 +28971,10 @@
         <v>1132</v>
       </c>
       <c r="E877">
-        <v>23.978982999999999</v>
+        <v>23.488683200000001</v>
       </c>
       <c r="F877">
-        <v>121.47427190000001</v>
+        <v>121.5137917</v>
       </c>
       <c r="G877">
         <v>1</v>
@@ -29000,10 +28997,10 @@
         <v>1133</v>
       </c>
       <c r="E878">
-        <v>23.488683200000001</v>
+        <v>23.7035996</v>
       </c>
       <c r="F878">
-        <v>121.5137917</v>
+        <v>121.5476922</v>
       </c>
       <c r="G878">
         <v>1</v>
@@ -29026,10 +29023,10 @@
         <v>1134</v>
       </c>
       <c r="E879">
-        <v>23.7035996</v>
+        <v>23.731249999999999</v>
       </c>
       <c r="F879">
-        <v>121.5476922</v>
+        <v>121.55866519999999</v>
       </c>
       <c r="G879">
         <v>1</v>
@@ -29052,10 +29049,10 @@
         <v>1135</v>
       </c>
       <c r="E880">
-        <v>23.731249999999999</v>
+        <v>23.482921999999999</v>
       </c>
       <c r="F880">
-        <v>121.55866519999999</v>
+        <v>121.507537</v>
       </c>
       <c r="G880">
         <v>1</v>
@@ -29078,10 +29075,10 @@
         <v>1136</v>
       </c>
       <c r="E881">
-        <v>23.482921999999999</v>
+        <v>23.761641600000001</v>
       </c>
       <c r="F881">
-        <v>121.507537</v>
+        <v>121.3733211</v>
       </c>
       <c r="G881">
         <v>1</v>
@@ -29101,13 +29098,13 @@
         <v>64</v>
       </c>
       <c r="C882" t="s">
-        <v>1137</v>
+        <v>286</v>
       </c>
       <c r="E882">
-        <v>23.761641600000001</v>
+        <v>23.927826799999998</v>
       </c>
       <c r="F882">
-        <v>121.3733211</v>
+        <v>121.5098787</v>
       </c>
       <c r="G882">
         <v>1</v>
@@ -29124,16 +29121,16 @@
     </row>
     <row r="883" spans="2:12">
       <c r="B883" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C883" t="s">
-        <v>286</v>
+        <v>1137</v>
       </c>
       <c r="E883">
-        <v>23.927826799999998</v>
+        <v>22.776146000000001</v>
       </c>
       <c r="F883">
-        <v>121.5098787</v>
+        <v>121.1421472</v>
       </c>
       <c r="G883">
         <v>1</v>
@@ -29156,10 +29153,10 @@
         <v>1138</v>
       </c>
       <c r="E884">
-        <v>22.776146000000001</v>
+        <v>22.7531204</v>
       </c>
       <c r="F884">
-        <v>121.1421472</v>
+        <v>121.1646423</v>
       </c>
       <c r="G884">
         <v>1</v>
@@ -29168,10 +29165,10 @@
         <v>28</v>
       </c>
       <c r="K884" t="s">
-        <v>28</v>
+        <v>1139</v>
       </c>
       <c r="L884" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
     </row>
     <row r="885" spans="2:12">
@@ -29179,7 +29176,10 @@
         <v>39</v>
       </c>
       <c r="C885" t="s">
-        <v>1139</v>
+        <v>1140</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1377</v>
       </c>
       <c r="E885">
         <v>22.7531204</v>
@@ -29187,17 +29187,17 @@
       <c r="F885">
         <v>121.1646423</v>
       </c>
-      <c r="G885">
+      <c r="I885">
         <v>1</v>
       </c>
       <c r="J885" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="K885" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="L885" t="s">
-        <v>295</v>
+        <v>28</v>
       </c>
     </row>
     <row r="886" spans="2:12">
@@ -29207,26 +29207,23 @@
       <c r="C886" t="s">
         <v>1141</v>
       </c>
-      <c r="D886" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E886">
-        <v>22.7531204</v>
-      </c>
-      <c r="F886">
-        <v>121.1646423</v>
-      </c>
-      <c r="I886">
+      <c r="E886" t="s">
+        <v>28</v>
+      </c>
+      <c r="F886" t="s">
+        <v>28</v>
+      </c>
+      <c r="G886">
         <v>1</v>
       </c>
       <c r="J886" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="K886" t="s">
-        <v>1140</v>
+        <v>211</v>
       </c>
       <c r="L886" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
     </row>
     <row r="887" spans="2:12">
@@ -29236,11 +29233,11 @@
       <c r="C887" t="s">
         <v>1142</v>
       </c>
-      <c r="E887" t="s">
-        <v>28</v>
-      </c>
-      <c r="F887" t="s">
-        <v>28</v>
+      <c r="E887">
+        <v>22.7557212</v>
+      </c>
+      <c r="F887">
+        <v>121.16656450000001</v>
       </c>
       <c r="G887">
         <v>1</v>
@@ -29249,10 +29246,10 @@
         <v>28</v>
       </c>
       <c r="K887" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="L887" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
     </row>
     <row r="888" spans="2:12">
@@ -29263,10 +29260,10 @@
         <v>1143</v>
       </c>
       <c r="E888">
-        <v>22.7557212</v>
+        <v>25.206397200000001</v>
       </c>
       <c r="F888">
-        <v>121.16656450000001</v>
+        <v>121.6904658</v>
       </c>
       <c r="G888">
         <v>1</v>
@@ -29289,10 +29286,10 @@
         <v>1144</v>
       </c>
       <c r="E889">
-        <v>25.206397200000001</v>
+        <v>22.7910653</v>
       </c>
       <c r="F889">
-        <v>121.6904658</v>
+        <v>121.192804</v>
       </c>
       <c r="G889">
         <v>1</v>
@@ -29314,11 +29311,11 @@
       <c r="C890" t="s">
         <v>1145</v>
       </c>
-      <c r="E890">
-        <v>22.7910653</v>
-      </c>
-      <c r="F890">
-        <v>121.192804</v>
+      <c r="E890" t="s">
+        <v>28</v>
+      </c>
+      <c r="F890" t="s">
+        <v>28</v>
       </c>
       <c r="G890">
         <v>1</v>
@@ -29340,11 +29337,11 @@
       <c r="C891" t="s">
         <v>1146</v>
       </c>
-      <c r="E891" t="s">
-        <v>28</v>
-      </c>
-      <c r="F891" t="s">
-        <v>28</v>
+      <c r="E891">
+        <v>22.764783999999999</v>
+      </c>
+      <c r="F891">
+        <v>121.117152</v>
       </c>
       <c r="G891">
         <v>1</v>
@@ -29367,10 +29364,10 @@
         <v>1147</v>
       </c>
       <c r="E892">
-        <v>22.764783999999999</v>
+        <v>22.934084800000001</v>
       </c>
       <c r="F892">
-        <v>121.117152</v>
+        <v>121.16101500000001</v>
       </c>
       <c r="G892">
         <v>1</v>
@@ -29393,10 +29390,10 @@
         <v>1148</v>
       </c>
       <c r="E893">
-        <v>22.934084800000001</v>
+        <v>22.765211399999998</v>
       </c>
       <c r="F893">
-        <v>121.16101500000001</v>
+        <v>121.1647656</v>
       </c>
       <c r="G893">
         <v>1</v>
@@ -29419,10 +29416,10 @@
         <v>1149</v>
       </c>
       <c r="E894">
-        <v>22.765211399999998</v>
+        <v>22.8307678</v>
       </c>
       <c r="F894">
-        <v>121.1647656</v>
+        <v>121.1861234</v>
       </c>
       <c r="G894">
         <v>1</v>
@@ -29445,10 +29442,10 @@
         <v>1150</v>
       </c>
       <c r="E895">
-        <v>22.8307678</v>
+        <v>22.832332900000001</v>
       </c>
       <c r="F895">
-        <v>121.1861234</v>
+        <v>121.1858045</v>
       </c>
       <c r="G895">
         <v>1</v>
@@ -29470,11 +29467,11 @@
       <c r="C896" t="s">
         <v>1151</v>
       </c>
-      <c r="E896">
-        <v>22.832332900000001</v>
-      </c>
-      <c r="F896">
-        <v>121.1858045</v>
+      <c r="E896" t="s">
+        <v>28</v>
+      </c>
+      <c r="F896" t="s">
+        <v>28</v>
       </c>
       <c r="G896">
         <v>1</v>
@@ -29522,11 +29519,11 @@
       <c r="C898" t="s">
         <v>1153</v>
       </c>
-      <c r="E898" t="s">
-        <v>28</v>
-      </c>
-      <c r="F898" t="s">
-        <v>28</v>
+      <c r="E898">
+        <v>22.6874498</v>
+      </c>
+      <c r="F898">
+        <v>120.9912777</v>
       </c>
       <c r="G898">
         <v>1</v>
@@ -29549,10 +29546,10 @@
         <v>1154</v>
       </c>
       <c r="E899">
-        <v>22.6874498</v>
+        <v>22.832689500000001</v>
       </c>
       <c r="F899">
-        <v>120.9912777</v>
+        <v>121.0881486</v>
       </c>
       <c r="G899">
         <v>1</v>
@@ -29574,11 +29571,11 @@
       <c r="C900" t="s">
         <v>1155</v>
       </c>
-      <c r="E900">
-        <v>22.832689500000001</v>
-      </c>
-      <c r="F900">
-        <v>121.0881486</v>
+      <c r="E900" t="s">
+        <v>28</v>
+      </c>
+      <c r="F900" t="s">
+        <v>28</v>
       </c>
       <c r="G900">
         <v>1</v>
@@ -29600,11 +29597,11 @@
       <c r="C901" t="s">
         <v>1156</v>
       </c>
-      <c r="E901" t="s">
-        <v>28</v>
-      </c>
-      <c r="F901" t="s">
-        <v>28</v>
+      <c r="E901">
+        <v>22.806864999999998</v>
+      </c>
+      <c r="F901">
+        <v>121.132786</v>
       </c>
       <c r="G901">
         <v>1</v>
@@ -29626,11 +29623,11 @@
       <c r="C902" t="s">
         <v>1157</v>
       </c>
-      <c r="E902">
-        <v>22.806864999999998</v>
-      </c>
-      <c r="F902">
-        <v>121.132786</v>
+      <c r="E902" t="s">
+        <v>28</v>
+      </c>
+      <c r="F902" t="s">
+        <v>28</v>
       </c>
       <c r="G902">
         <v>1</v>
@@ -29652,11 +29649,11 @@
       <c r="C903" t="s">
         <v>1158</v>
       </c>
-      <c r="E903" t="s">
-        <v>28</v>
-      </c>
-      <c r="F903" t="s">
-        <v>28</v>
+      <c r="E903">
+        <v>22.6949349</v>
+      </c>
+      <c r="F903">
+        <v>121.0174315</v>
       </c>
       <c r="G903">
         <v>1</v>
@@ -29679,10 +29676,10 @@
         <v>1159</v>
       </c>
       <c r="E904">
-        <v>22.6949349</v>
+        <v>22.7587534</v>
       </c>
       <c r="F904">
-        <v>121.0174315</v>
+        <v>121.0538591</v>
       </c>
       <c r="G904">
         <v>1</v>
@@ -29731,10 +29728,10 @@
         <v>1161</v>
       </c>
       <c r="E906">
-        <v>22.7587534</v>
+        <v>22.815485800000001</v>
       </c>
       <c r="F906">
-        <v>121.0538591</v>
+        <v>121.1383606</v>
       </c>
       <c r="G906">
         <v>1</v>
@@ -29756,11 +29753,11 @@
       <c r="C907" t="s">
         <v>1162</v>
       </c>
-      <c r="E907">
-        <v>22.815485800000001</v>
-      </c>
-      <c r="F907">
-        <v>121.1383606</v>
+      <c r="E907" t="s">
+        <v>28</v>
+      </c>
+      <c r="F907" t="s">
+        <v>28</v>
       </c>
       <c r="G907">
         <v>1</v>
@@ -29782,11 +29779,11 @@
       <c r="C908" t="s">
         <v>1163</v>
       </c>
-      <c r="E908" t="s">
-        <v>28</v>
-      </c>
-      <c r="F908" t="s">
-        <v>28</v>
+      <c r="E908">
+        <v>22.861877400000001</v>
+      </c>
+      <c r="F908">
+        <v>121.1378194</v>
       </c>
       <c r="G908">
         <v>1</v>
@@ -29809,10 +29806,10 @@
         <v>1164</v>
       </c>
       <c r="E909">
-        <v>22.861877400000001</v>
+        <v>22.898592499999999</v>
       </c>
       <c r="F909">
-        <v>121.1378194</v>
+        <v>121.0855469</v>
       </c>
       <c r="G909">
         <v>1</v>
@@ -29835,10 +29832,10 @@
         <v>1165</v>
       </c>
       <c r="E910">
-        <v>22.898592499999999</v>
+        <v>22.882629999999999</v>
       </c>
       <c r="F910">
-        <v>121.0855469</v>
+        <v>121.116364</v>
       </c>
       <c r="G910">
         <v>1</v>
@@ -29861,10 +29858,10 @@
         <v>1166</v>
       </c>
       <c r="E911">
-        <v>22.882629999999999</v>
+        <v>22.765685000000001</v>
       </c>
       <c r="F911">
-        <v>121.116364</v>
+        <v>121.04146</v>
       </c>
       <c r="G911">
         <v>1</v>
@@ -29886,11 +29883,11 @@
       <c r="C912" t="s">
         <v>1167</v>
       </c>
-      <c r="E912">
-        <v>22.765685000000001</v>
-      </c>
-      <c r="F912">
-        <v>121.04146</v>
+      <c r="E912" t="s">
+        <v>28</v>
+      </c>
+      <c r="F912" t="s">
+        <v>28</v>
       </c>
       <c r="G912">
         <v>1</v>
@@ -29912,11 +29909,11 @@
       <c r="C913" t="s">
         <v>1168</v>
       </c>
-      <c r="E913" t="s">
-        <v>28</v>
-      </c>
-      <c r="F913" t="s">
-        <v>28</v>
+      <c r="E913">
+        <v>22.877342899999999</v>
+      </c>
+      <c r="F913">
+        <v>121.0571671</v>
       </c>
       <c r="G913">
         <v>1</v>
@@ -29939,10 +29936,10 @@
         <v>1169</v>
       </c>
       <c r="E914">
-        <v>22.877342899999999</v>
+        <v>22.801913800000001</v>
       </c>
       <c r="F914">
-        <v>121.0571671</v>
+        <v>121.10435889999999</v>
       </c>
       <c r="G914">
         <v>1</v>
@@ -29965,10 +29962,10 @@
         <v>1170</v>
       </c>
       <c r="E915">
-        <v>22.801913800000001</v>
+        <v>22.806864999999998</v>
       </c>
       <c r="F915">
-        <v>121.10435889999999</v>
+        <v>121.132786</v>
       </c>
       <c r="G915">
         <v>1</v>
@@ -29991,10 +29988,10 @@
         <v>1171</v>
       </c>
       <c r="E916">
-        <v>22.806864999999998</v>
+        <v>23.117733099999999</v>
       </c>
       <c r="F916">
-        <v>121.132786</v>
+        <v>121.1741359</v>
       </c>
       <c r="G916">
         <v>1</v>
@@ -30043,10 +30040,10 @@
         <v>1173</v>
       </c>
       <c r="E918">
-        <v>23.117733099999999</v>
+        <v>22.803643699999999</v>
       </c>
       <c r="F918">
-        <v>121.1741359</v>
+        <v>121.1318112</v>
       </c>
       <c r="G918">
         <v>1</v>
@@ -30069,10 +30066,10 @@
         <v>1174</v>
       </c>
       <c r="E919">
-        <v>22.803643699999999</v>
+        <v>22.877342899999999</v>
       </c>
       <c r="F919">
-        <v>121.1318112</v>
+        <v>121.0571671</v>
       </c>
       <c r="G919">
         <v>1</v>
@@ -30094,11 +30091,11 @@
       <c r="C920" t="s">
         <v>1175</v>
       </c>
-      <c r="E920">
-        <v>22.877342899999999</v>
-      </c>
-      <c r="F920">
-        <v>121.0571671</v>
+      <c r="E920" t="s">
+        <v>28</v>
+      </c>
+      <c r="F920" t="s">
+        <v>28</v>
       </c>
       <c r="G920">
         <v>1</v>
@@ -30120,11 +30117,11 @@
       <c r="C921" t="s">
         <v>1176</v>
       </c>
-      <c r="E921" t="s">
-        <v>28</v>
-      </c>
-      <c r="F921" t="s">
-        <v>28</v>
+      <c r="E921">
+        <v>22.6756511</v>
+      </c>
+      <c r="F921">
+        <v>121.47259010000001</v>
       </c>
       <c r="G921">
         <v>1</v>
@@ -30147,10 +30144,10 @@
         <v>1177</v>
       </c>
       <c r="E922">
-        <v>22.6756511</v>
+        <v>22.6557709</v>
       </c>
       <c r="F922">
-        <v>121.47259010000001</v>
+        <v>121.474542</v>
       </c>
       <c r="G922">
         <v>1</v>
@@ -30173,10 +30170,10 @@
         <v>1178</v>
       </c>
       <c r="E923">
-        <v>22.6557709</v>
+        <v>22.6382078</v>
       </c>
       <c r="F923">
-        <v>121.474542</v>
+        <v>121.4941063</v>
       </c>
       <c r="G923">
         <v>1</v>
@@ -30199,10 +30196,10 @@
         <v>1179</v>
       </c>
       <c r="E924">
-        <v>22.6382078</v>
+        <v>22.665634900000001</v>
       </c>
       <c r="F924">
-        <v>121.4941063</v>
+        <v>121.51004469999999</v>
       </c>
       <c r="G924">
         <v>1</v>
@@ -30225,10 +30222,10 @@
         <v>1180</v>
       </c>
       <c r="E925">
-        <v>22.665634900000001</v>
+        <v>22.662088600000001</v>
       </c>
       <c r="F925">
-        <v>121.51004469999999</v>
+        <v>121.4901443</v>
       </c>
       <c r="G925">
         <v>1</v>
@@ -30237,7 +30234,7 @@
         <v>28</v>
       </c>
       <c r="K925" t="s">
-        <v>28</v>
+        <v>1181</v>
       </c>
       <c r="L925" t="s">
         <v>28</v>
@@ -30248,13 +30245,13 @@
         <v>39</v>
       </c>
       <c r="C926" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E926">
-        <v>22.662088600000001</v>
+        <v>22.6370304</v>
       </c>
       <c r="F926">
-        <v>121.4901443</v>
+        <v>121.5041801</v>
       </c>
       <c r="G926">
         <v>1</v>
@@ -30263,7 +30260,7 @@
         <v>28</v>
       </c>
       <c r="K926" t="s">
-        <v>1182</v>
+        <v>28</v>
       </c>
       <c r="L926" t="s">
         <v>28</v>
@@ -30277,10 +30274,10 @@
         <v>1183</v>
       </c>
       <c r="E927">
-        <v>22.6370304</v>
+        <v>22.6756511</v>
       </c>
       <c r="F927">
-        <v>121.5041801</v>
+        <v>121.47259010000001</v>
       </c>
       <c r="G927">
         <v>1</v>
@@ -30303,10 +30300,10 @@
         <v>1184</v>
       </c>
       <c r="E928">
-        <v>22.6756511</v>
+        <v>22.6757089</v>
       </c>
       <c r="F928">
-        <v>121.47259010000001</v>
+        <v>121.4822667</v>
       </c>
       <c r="G928">
         <v>1</v>
@@ -30329,10 +30326,10 @@
         <v>1185</v>
       </c>
       <c r="E929">
-        <v>22.6757089</v>
+        <v>22.659485</v>
       </c>
       <c r="F929">
-        <v>121.4822667</v>
+        <v>121.473767</v>
       </c>
       <c r="G929">
         <v>1</v>
@@ -30355,10 +30352,10 @@
         <v>1186</v>
       </c>
       <c r="E930">
-        <v>22.659485</v>
+        <v>22.058365200000001</v>
       </c>
       <c r="F930">
-        <v>121.473767</v>
+        <v>121.5081996</v>
       </c>
       <c r="G930">
         <v>1</v>
@@ -30381,10 +30378,10 @@
         <v>1187</v>
       </c>
       <c r="E931">
-        <v>22.058365200000001</v>
+        <v>22.080320499999999</v>
       </c>
       <c r="F931">
-        <v>121.5081996</v>
+        <v>121.53049679999999</v>
       </c>
       <c r="G931">
         <v>1</v>
@@ -30407,10 +30404,10 @@
         <v>1188</v>
       </c>
       <c r="E932">
-        <v>22.080320499999999</v>
+        <v>22.0822222</v>
       </c>
       <c r="F932">
-        <v>121.53049679999999</v>
+        <v>121.5577778</v>
       </c>
       <c r="G932">
         <v>1</v>
@@ -30419,7 +30416,7 @@
         <v>28</v>
       </c>
       <c r="K932" t="s">
-        <v>28</v>
+        <v>1189</v>
       </c>
       <c r="L932" t="s">
         <v>28</v>
@@ -30430,22 +30427,22 @@
         <v>39</v>
       </c>
       <c r="C933" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E933">
+        <v>22.04758</v>
+      </c>
+      <c r="F933">
+        <v>121.5654699</v>
+      </c>
+      <c r="G933">
+        <v>1</v>
+      </c>
+      <c r="J933" t="s">
+        <v>28</v>
+      </c>
+      <c r="K933" t="s">
         <v>1189</v>
-      </c>
-      <c r="E933">
-        <v>22.0822222</v>
-      </c>
-      <c r="F933">
-        <v>121.5577778</v>
-      </c>
-      <c r="G933">
-        <v>1</v>
-      </c>
-      <c r="J933" t="s">
-        <v>28</v>
-      </c>
-      <c r="K933" t="s">
-        <v>1190</v>
       </c>
       <c r="L933" t="s">
         <v>28</v>
@@ -30459,10 +30456,10 @@
         <v>1191</v>
       </c>
       <c r="E934">
-        <v>22.04758</v>
+        <v>22.033359999999998</v>
       </c>
       <c r="F934">
-        <v>121.5654699</v>
+        <v>121.576724</v>
       </c>
       <c r="G934">
         <v>1</v>
@@ -30471,7 +30468,7 @@
         <v>28</v>
       </c>
       <c r="K934" t="s">
-        <v>1190</v>
+        <v>28</v>
       </c>
       <c r="L934" t="s">
         <v>28</v>
@@ -30485,10 +30482,10 @@
         <v>1192</v>
       </c>
       <c r="E935">
-        <v>22.033359999999998</v>
+        <v>22.004786200000002</v>
       </c>
       <c r="F935">
-        <v>121.576724</v>
+        <v>121.5813029</v>
       </c>
       <c r="G935">
         <v>1</v>
@@ -30510,11 +30507,11 @@
       <c r="C936" t="s">
         <v>1193</v>
       </c>
-      <c r="E936">
-        <v>22.004786200000002</v>
-      </c>
-      <c r="F936">
-        <v>121.5813029</v>
+      <c r="E936" t="s">
+        <v>28</v>
+      </c>
+      <c r="F936" t="s">
+        <v>28</v>
       </c>
       <c r="G936">
         <v>1</v>
@@ -30536,11 +30533,11 @@
       <c r="C937" t="s">
         <v>1194</v>
       </c>
-      <c r="E937" t="s">
-        <v>28</v>
-      </c>
-      <c r="F937" t="s">
-        <v>28</v>
+      <c r="E937">
+        <v>22.676564299999999</v>
+      </c>
+      <c r="F937">
+        <v>120.9263089</v>
       </c>
       <c r="G937">
         <v>1</v>
@@ -30549,10 +30546,10 @@
         <v>28</v>
       </c>
       <c r="K937" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="L937" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="938" spans="2:12">
@@ -30563,10 +30560,10 @@
         <v>1195</v>
       </c>
       <c r="E938">
-        <v>22.676564299999999</v>
+        <v>22.610323099999999</v>
       </c>
       <c r="F938">
-        <v>120.9263089</v>
+        <v>121.00495340000001</v>
       </c>
       <c r="G938">
         <v>1</v>
@@ -30575,10 +30572,10 @@
         <v>28</v>
       </c>
       <c r="K938" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="L938" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="939" spans="2:12">
@@ -30615,10 +30612,10 @@
         <v>1197</v>
       </c>
       <c r="E940">
-        <v>22.610323099999999</v>
+        <v>24.995039999999999</v>
       </c>
       <c r="F940">
-        <v>121.00495340000001</v>
+        <v>121.559245</v>
       </c>
       <c r="G940">
         <v>1</v>
@@ -30641,10 +30638,10 @@
         <v>1198</v>
       </c>
       <c r="E941">
-        <v>24.995039999999999</v>
+        <v>22.575817300000001</v>
       </c>
       <c r="F941">
-        <v>121.559245</v>
+        <v>120.9887791</v>
       </c>
       <c r="G941">
         <v>1</v>
@@ -30667,10 +30664,10 @@
         <v>1199</v>
       </c>
       <c r="E942">
-        <v>22.575817300000001</v>
+        <v>22.5289492</v>
       </c>
       <c r="F942">
-        <v>120.9887791</v>
+        <v>120.93997400000001</v>
       </c>
       <c r="G942">
         <v>1</v>
@@ -30692,11 +30689,11 @@
       <c r="C943" t="s">
         <v>1200</v>
       </c>
-      <c r="E943">
-        <v>22.5289492</v>
-      </c>
-      <c r="F943">
-        <v>120.93997400000001</v>
+      <c r="E943" t="s">
+        <v>28</v>
+      </c>
+      <c r="F943" t="s">
+        <v>28</v>
       </c>
       <c r="G943">
         <v>1</v>
@@ -30705,10 +30702,10 @@
         <v>28</v>
       </c>
       <c r="K943" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="L943" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
     </row>
     <row r="944" spans="2:12">
@@ -30734,7 +30731,7 @@
         <v>232</v>
       </c>
       <c r="L944" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
     </row>
     <row r="945" spans="2:12">
@@ -30744,11 +30741,11 @@
       <c r="C945" t="s">
         <v>1202</v>
       </c>
-      <c r="E945" t="s">
-        <v>28</v>
-      </c>
-      <c r="F945" t="s">
-        <v>28</v>
+      <c r="E945">
+        <v>22.507487300000001</v>
+      </c>
+      <c r="F945">
+        <v>120.9588809</v>
       </c>
       <c r="G945">
         <v>1</v>
@@ -30757,10 +30754,10 @@
         <v>28</v>
       </c>
       <c r="K945" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="L945" t="s">
-        <v>28</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="946" spans="2:12">
@@ -30768,25 +30765,28 @@
         <v>39</v>
       </c>
       <c r="C946" t="s">
-        <v>1203</v>
+        <v>1204</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1378</v>
       </c>
       <c r="E946">
-        <v>22.507487300000001</v>
+        <v>22.462393800000001</v>
       </c>
       <c r="F946">
-        <v>120.9588809</v>
-      </c>
-      <c r="G946">
+        <v>120.9408792</v>
+      </c>
+      <c r="I946">
         <v>1</v>
       </c>
       <c r="J946" t="s">
-        <v>28</v>
+        <v>1205</v>
       </c>
       <c r="K946" t="s">
         <v>28</v>
       </c>
       <c r="L946" t="s">
-        <v>1204</v>
+        <v>28</v>
       </c>
     </row>
     <row r="947" spans="2:12">
@@ -30794,25 +30794,22 @@
         <v>39</v>
       </c>
       <c r="C947" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D947" t="s">
-        <v>1379</v>
+        <v>1206</v>
       </c>
       <c r="E947">
-        <v>22.462393800000001</v>
+        <v>22.507487300000001</v>
       </c>
       <c r="F947">
-        <v>120.9408792</v>
-      </c>
-      <c r="I947">
+        <v>120.9588809</v>
+      </c>
+      <c r="G947">
         <v>1</v>
       </c>
       <c r="J947" t="s">
-        <v>1206</v>
+        <v>28</v>
       </c>
       <c r="K947" t="s">
-        <v>28</v>
+        <v>1207</v>
       </c>
       <c r="L947" t="s">
         <v>28</v>
@@ -30823,22 +30820,22 @@
         <v>39</v>
       </c>
       <c r="C948" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E948">
-        <v>22.507487300000001</v>
-      </c>
-      <c r="F948">
-        <v>120.9588809</v>
-      </c>
-      <c r="G948">
+        <v>1208</v>
+      </c>
+      <c r="E948" t="s">
+        <v>28</v>
+      </c>
+      <c r="F948" t="s">
+        <v>28</v>
+      </c>
+      <c r="H948">
         <v>1</v>
       </c>
       <c r="J948" t="s">
-        <v>28</v>
+        <v>1209</v>
       </c>
       <c r="K948" t="s">
-        <v>1208</v>
+        <v>28</v>
       </c>
       <c r="L948" t="s">
         <v>28</v>
@@ -30849,7 +30846,7 @@
         <v>39</v>
       </c>
       <c r="C949" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E949" t="s">
         <v>28</v>
@@ -30857,11 +30854,11 @@
       <c r="F949" t="s">
         <v>28</v>
       </c>
-      <c r="H949">
+      <c r="G949">
         <v>1</v>
       </c>
       <c r="J949" t="s">
-        <v>1210</v>
+        <v>28</v>
       </c>
       <c r="K949" t="s">
         <v>28</v>
@@ -30877,11 +30874,11 @@
       <c r="C950" t="s">
         <v>1211</v>
       </c>
-      <c r="E950" t="s">
-        <v>28</v>
-      </c>
-      <c r="F950" t="s">
-        <v>28</v>
+      <c r="E950">
+        <v>22.580004899999999</v>
+      </c>
+      <c r="F950">
+        <v>120.947537</v>
       </c>
       <c r="G950">
         <v>1</v>
@@ -30893,7 +30890,7 @@
         <v>28</v>
       </c>
       <c r="L950" t="s">
-        <v>28</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="951" spans="2:12">
@@ -30901,7 +30898,10 @@
         <v>39</v>
       </c>
       <c r="C951" t="s">
-        <v>1212</v>
+        <v>1213</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1379</v>
       </c>
       <c r="E951">
         <v>22.580004899999999</v>
@@ -30909,17 +30909,17 @@
       <c r="F951">
         <v>120.947537</v>
       </c>
-      <c r="G951">
+      <c r="I951">
         <v>1</v>
       </c>
       <c r="J951" t="s">
-        <v>28</v>
+        <v>1214</v>
       </c>
       <c r="K951" t="s">
         <v>28</v>
       </c>
       <c r="L951" t="s">
-        <v>1213</v>
+        <v>28</v>
       </c>
     </row>
     <row r="952" spans="2:12">
@@ -30927,22 +30927,19 @@
         <v>39</v>
       </c>
       <c r="C952" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D952" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E952">
-        <v>22.580004899999999</v>
-      </c>
-      <c r="F952">
-        <v>120.947537</v>
-      </c>
-      <c r="I952">
+        <v>1215</v>
+      </c>
+      <c r="E952" t="s">
+        <v>28</v>
+      </c>
+      <c r="F952" t="s">
+        <v>28</v>
+      </c>
+      <c r="G952">
         <v>1</v>
       </c>
       <c r="J952" t="s">
-        <v>1215</v>
+        <v>28</v>
       </c>
       <c r="K952" t="s">
         <v>28</v>
@@ -30984,11 +30981,11 @@
       <c r="C954" t="s">
         <v>1217</v>
       </c>
-      <c r="E954" t="s">
-        <v>28</v>
-      </c>
-      <c r="F954" t="s">
-        <v>28</v>
+      <c r="E954">
+        <v>23.117733099999999</v>
+      </c>
+      <c r="F954">
+        <v>121.1741359</v>
       </c>
       <c r="G954">
         <v>1</v>
@@ -31010,11 +31007,11 @@
       <c r="C955" t="s">
         <v>1218</v>
       </c>
-      <c r="E955">
-        <v>23.117733099999999</v>
-      </c>
-      <c r="F955">
-        <v>121.1741359</v>
+      <c r="E955" t="s">
+        <v>28</v>
+      </c>
+      <c r="F955" t="s">
+        <v>28</v>
       </c>
       <c r="G955">
         <v>1</v>
@@ -31062,11 +31059,11 @@
       <c r="C957" t="s">
         <v>1220</v>
       </c>
-      <c r="E957" t="s">
-        <v>28</v>
-      </c>
-      <c r="F957" t="s">
-        <v>28</v>
+      <c r="E957">
+        <v>23.117733099999999</v>
+      </c>
+      <c r="F957">
+        <v>121.1741359</v>
       </c>
       <c r="G957">
         <v>1</v>
@@ -31089,10 +31086,10 @@
         <v>1221</v>
       </c>
       <c r="E958">
-        <v>23.117733099999999</v>
+        <v>23.035051800000002</v>
       </c>
       <c r="F958">
-        <v>121.1741359</v>
+        <v>121.17650380000001</v>
       </c>
       <c r="G958">
         <v>1</v>
@@ -31115,10 +31112,10 @@
         <v>1222</v>
       </c>
       <c r="E959">
-        <v>23.035051800000002</v>
+        <v>23.009367999999998</v>
       </c>
       <c r="F959">
-        <v>121.17650380000001</v>
+        <v>121.148618</v>
       </c>
       <c r="G959">
         <v>1</v>
@@ -31141,10 +31138,10 @@
         <v>1223</v>
       </c>
       <c r="E960">
-        <v>23.009367999999998</v>
+        <v>23.1041667</v>
       </c>
       <c r="F960">
-        <v>121.148618</v>
+        <v>121.1952778</v>
       </c>
       <c r="G960">
         <v>1</v>
@@ -31193,10 +31190,10 @@
         <v>1225</v>
       </c>
       <c r="E962">
-        <v>23.1041667</v>
+        <v>23.128097400000001</v>
       </c>
       <c r="F962">
-        <v>121.1952778</v>
+        <v>121.2330955</v>
       </c>
       <c r="G962">
         <v>1</v>
@@ -31219,10 +31216,10 @@
         <v>1226</v>
       </c>
       <c r="E963">
-        <v>23.128097400000001</v>
+        <v>23.119911200000001</v>
       </c>
       <c r="F963">
-        <v>121.2330955</v>
+        <v>121.22404090000001</v>
       </c>
       <c r="G963">
         <v>1</v>
@@ -31245,10 +31242,10 @@
         <v>1227</v>
       </c>
       <c r="E964">
-        <v>23.119911200000001</v>
+        <v>23.098865799999999</v>
       </c>
       <c r="F964">
-        <v>121.22404090000001</v>
+        <v>121.1923054</v>
       </c>
       <c r="G964">
         <v>1</v>
@@ -31271,10 +31268,10 @@
         <v>1228</v>
       </c>
       <c r="E965">
-        <v>23.098865799999999</v>
+        <v>23.112255300000001</v>
       </c>
       <c r="F965">
-        <v>121.1923054</v>
+        <v>121.20278570000001</v>
       </c>
       <c r="G965">
         <v>1</v>
@@ -31297,10 +31294,10 @@
         <v>1229</v>
       </c>
       <c r="E966">
-        <v>23.112255300000001</v>
+        <v>23.0793736</v>
       </c>
       <c r="F966">
-        <v>121.20278570000001</v>
+        <v>121.2290289</v>
       </c>
       <c r="G966">
         <v>1</v>
@@ -31323,10 +31320,10 @@
         <v>1230</v>
       </c>
       <c r="E967">
-        <v>23.0793736</v>
+        <v>23.052074000000001</v>
       </c>
       <c r="F967">
-        <v>121.2290289</v>
+        <v>121.211529</v>
       </c>
       <c r="G967">
         <v>1</v>
@@ -31348,11 +31345,11 @@
       <c r="C968" t="s">
         <v>1231</v>
       </c>
-      <c r="E968">
-        <v>23.052074000000001</v>
-      </c>
-      <c r="F968">
-        <v>121.211529</v>
+      <c r="E968" t="s">
+        <v>28</v>
+      </c>
+      <c r="F968" t="s">
+        <v>28</v>
       </c>
       <c r="G968">
         <v>1</v>
@@ -31374,11 +31371,11 @@
       <c r="C969" t="s">
         <v>1232</v>
       </c>
-      <c r="E969" t="s">
-        <v>28</v>
-      </c>
-      <c r="F969" t="s">
-        <v>28</v>
+      <c r="E969">
+        <v>23.117733099999999</v>
+      </c>
+      <c r="F969">
+        <v>121.1741359</v>
       </c>
       <c r="G969">
         <v>1</v>
@@ -31401,10 +31398,10 @@
         <v>1233</v>
       </c>
       <c r="E970">
-        <v>23.117733099999999</v>
+        <v>23.0495603</v>
       </c>
       <c r="F970">
-        <v>121.1741359</v>
+        <v>121.1646339</v>
       </c>
       <c r="G970">
         <v>1</v>
@@ -31427,10 +31424,10 @@
         <v>1234</v>
       </c>
       <c r="E971">
-        <v>23.0495603</v>
+        <v>25.026097</v>
       </c>
       <c r="F971">
-        <v>121.1646339</v>
+        <v>121.53185999999999</v>
       </c>
       <c r="G971">
         <v>1</v>
@@ -31453,10 +31450,10 @@
         <v>1235</v>
       </c>
       <c r="E972">
-        <v>25.026097</v>
+        <v>23.132266999999999</v>
       </c>
       <c r="F972">
-        <v>121.53185999999999</v>
+        <v>121.176574</v>
       </c>
       <c r="G972">
         <v>1</v>
@@ -31505,10 +31502,10 @@
         <v>1237</v>
       </c>
       <c r="E974">
-        <v>23.132266999999999</v>
+        <v>23.133120699999999</v>
       </c>
       <c r="F974">
-        <v>121.176574</v>
+        <v>121.11925220000001</v>
       </c>
       <c r="G974">
         <v>1</v>
@@ -31531,10 +31528,10 @@
         <v>1238</v>
       </c>
       <c r="E975">
-        <v>23.133120699999999</v>
+        <v>22.991255899999999</v>
       </c>
       <c r="F975">
-        <v>121.11925220000001</v>
+        <v>121.05926030000001</v>
       </c>
       <c r="G975">
         <v>1</v>
@@ -31556,11 +31553,11 @@
       <c r="C976" t="s">
         <v>1239</v>
       </c>
-      <c r="E976">
-        <v>22.991255899999999</v>
-      </c>
-      <c r="F976">
-        <v>121.05926030000001</v>
+      <c r="E976" t="s">
+        <v>28</v>
+      </c>
+      <c r="F976" t="s">
+        <v>28</v>
       </c>
       <c r="G976">
         <v>1</v>
@@ -31582,11 +31579,11 @@
       <c r="C977" t="s">
         <v>1240</v>
       </c>
-      <c r="E977" t="s">
-        <v>28</v>
-      </c>
-      <c r="F977" t="s">
-        <v>28</v>
+      <c r="E977">
+        <v>22.956310899999998</v>
+      </c>
+      <c r="F977">
+        <v>121.1537154</v>
       </c>
       <c r="G977">
         <v>1</v>
@@ -31609,10 +31606,10 @@
         <v>1241</v>
       </c>
       <c r="E978">
-        <v>22.956310899999998</v>
+        <v>22.968087000000001</v>
       </c>
       <c r="F978">
-        <v>121.1537154</v>
+        <v>121.114152</v>
       </c>
       <c r="G978">
         <v>1</v>
@@ -31635,10 +31632,10 @@
         <v>1242</v>
       </c>
       <c r="E979">
-        <v>22.968087000000001</v>
+        <v>23.117733099999999</v>
       </c>
       <c r="F979">
-        <v>121.114152</v>
+        <v>121.1741359</v>
       </c>
       <c r="G979">
         <v>1</v>
@@ -31661,10 +31658,10 @@
         <v>1243</v>
       </c>
       <c r="E980">
-        <v>23.117733099999999</v>
+        <v>22.920429200000001</v>
       </c>
       <c r="F980">
-        <v>121.1741359</v>
+        <v>121.1158428</v>
       </c>
       <c r="G980">
         <v>1</v>
@@ -31687,10 +31684,10 @@
         <v>1244</v>
       </c>
       <c r="E981">
-        <v>22.920429200000001</v>
+        <v>22.9641667</v>
       </c>
       <c r="F981">
-        <v>121.1158428</v>
+        <v>121.132008</v>
       </c>
       <c r="G981">
         <v>1</v>
@@ -31713,10 +31710,10 @@
         <v>1245</v>
       </c>
       <c r="E982">
-        <v>22.9641667</v>
+        <v>22.8969092</v>
       </c>
       <c r="F982">
-        <v>121.132008</v>
+        <v>121.072446</v>
       </c>
       <c r="G982">
         <v>1</v>
@@ -31739,10 +31736,10 @@
         <v>1246</v>
       </c>
       <c r="E983">
-        <v>22.8969092</v>
+        <v>22.885559099999998</v>
       </c>
       <c r="F983">
-        <v>121.072446</v>
+        <v>121.16028300000001</v>
       </c>
       <c r="G983">
         <v>1</v>
@@ -31765,10 +31762,10 @@
         <v>1247</v>
       </c>
       <c r="E984">
-        <v>22.885559099999998</v>
+        <v>22.898592499999999</v>
       </c>
       <c r="F984">
-        <v>121.16028300000001</v>
+        <v>121.0855469</v>
       </c>
       <c r="G984">
         <v>1</v>
@@ -31791,10 +31788,10 @@
         <v>1248</v>
       </c>
       <c r="E985">
-        <v>22.898592499999999</v>
+        <v>22.995677000000001</v>
       </c>
       <c r="F985">
-        <v>121.0855469</v>
+        <v>121.3152523</v>
       </c>
       <c r="G985">
         <v>1</v>
@@ -31816,11 +31813,11 @@
       <c r="C986" t="s">
         <v>1249</v>
       </c>
-      <c r="E986">
-        <v>22.995677000000001</v>
-      </c>
-      <c r="F986">
-        <v>121.3152523</v>
+      <c r="E986" t="s">
+        <v>28</v>
+      </c>
+      <c r="F986" t="s">
+        <v>28</v>
       </c>
       <c r="G986">
         <v>1</v>
@@ -31842,11 +31839,11 @@
       <c r="C987" t="s">
         <v>1250</v>
       </c>
-      <c r="E987" t="s">
-        <v>28</v>
-      </c>
-      <c r="F987" t="s">
-        <v>28</v>
+      <c r="E987">
+        <v>23.123699599999998</v>
+      </c>
+      <c r="F987">
+        <v>121.4128161</v>
       </c>
       <c r="G987">
         <v>1</v>
@@ -31868,11 +31865,11 @@
       <c r="C988" t="s">
         <v>1251</v>
       </c>
-      <c r="E988">
-        <v>23.123699599999998</v>
-      </c>
-      <c r="F988">
-        <v>121.4128161</v>
+      <c r="E988" t="s">
+        <v>28</v>
+      </c>
+      <c r="F988" t="s">
+        <v>28</v>
       </c>
       <c r="G988">
         <v>1</v>
@@ -31894,11 +31891,11 @@
       <c r="C989" t="s">
         <v>1252</v>
       </c>
-      <c r="E989" t="s">
-        <v>28</v>
-      </c>
-      <c r="F989" t="s">
-        <v>28</v>
+      <c r="E989">
+        <v>23.0992222</v>
+      </c>
+      <c r="F989">
+        <v>121.3802015</v>
       </c>
       <c r="G989">
         <v>1</v>
@@ -31921,10 +31918,10 @@
         <v>1253</v>
       </c>
       <c r="E990">
-        <v>23.0992222</v>
+        <v>23.104044600000002</v>
       </c>
       <c r="F990">
-        <v>121.3802015</v>
+        <v>121.3849719</v>
       </c>
       <c r="G990">
         <v>1</v>
@@ -31947,10 +31944,10 @@
         <v>1254</v>
       </c>
       <c r="E991">
-        <v>23.104044600000002</v>
+        <v>23.1261358</v>
       </c>
       <c r="F991">
-        <v>121.3849719</v>
+        <v>121.4216802</v>
       </c>
       <c r="G991">
         <v>1</v>
@@ -31998,11 +31995,11 @@
       <c r="C993" t="s">
         <v>1256</v>
       </c>
-      <c r="E993">
-        <v>23.1261358</v>
-      </c>
-      <c r="F993">
-        <v>121.4216802</v>
+      <c r="E993" t="s">
+        <v>28</v>
+      </c>
+      <c r="F993" t="s">
+        <v>28</v>
       </c>
       <c r="G993">
         <v>1</v>
@@ -32050,11 +32047,11 @@
       <c r="C995" t="s">
         <v>1258</v>
       </c>
-      <c r="E995" t="s">
-        <v>28</v>
-      </c>
-      <c r="F995" t="s">
-        <v>28</v>
+      <c r="E995">
+        <v>25.0412462</v>
+      </c>
+      <c r="F995">
+        <v>121.555862</v>
       </c>
       <c r="G995">
         <v>1</v>
@@ -32077,10 +32074,10 @@
         <v>1259</v>
       </c>
       <c r="E996">
-        <v>25.0412462</v>
+        <v>23.158791399999998</v>
       </c>
       <c r="F996">
-        <v>121.555862</v>
+        <v>121.4033522</v>
       </c>
       <c r="G996">
         <v>1</v>
@@ -32103,10 +32100,10 @@
         <v>1260</v>
       </c>
       <c r="E997">
-        <v>23.158791399999998</v>
+        <v>23.175018399999999</v>
       </c>
       <c r="F997">
-        <v>121.4033522</v>
+        <v>121.4018978</v>
       </c>
       <c r="G997">
         <v>1</v>
@@ -32129,10 +32126,10 @@
         <v>1261</v>
       </c>
       <c r="E998">
-        <v>23.175018399999999</v>
+        <v>23.1904699</v>
       </c>
       <c r="F998">
-        <v>121.4018978</v>
+        <v>121.3963617</v>
       </c>
       <c r="G998">
         <v>1</v>
@@ -32154,11 +32151,11 @@
       <c r="C999" t="s">
         <v>1262</v>
       </c>
-      <c r="E999">
-        <v>23.1904699</v>
-      </c>
-      <c r="F999">
-        <v>121.3963617</v>
+      <c r="E999" t="s">
+        <v>28</v>
+      </c>
+      <c r="F999" t="s">
+        <v>28</v>
       </c>
       <c r="G999">
         <v>1</v>
@@ -32180,11 +32177,11 @@
       <c r="C1000" t="s">
         <v>1263</v>
       </c>
-      <c r="E1000" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1000" t="s">
-        <v>28</v>
+      <c r="E1000">
+        <v>23.188921400000002</v>
+      </c>
+      <c r="F1000">
+        <v>121.3965851</v>
       </c>
       <c r="G1000">
         <v>1</v>
@@ -32207,10 +32204,10 @@
         <v>1264</v>
       </c>
       <c r="E1001">
-        <v>23.188921400000002</v>
+        <v>23.021069799999999</v>
       </c>
       <c r="F1001">
-        <v>121.3965851</v>
+        <v>121.3343521</v>
       </c>
       <c r="G1001">
         <v>1</v>
@@ -32232,11 +32229,11 @@
       <c r="C1002" t="s">
         <v>1265</v>
       </c>
-      <c r="E1002">
-        <v>23.021069799999999</v>
-      </c>
-      <c r="F1002">
-        <v>121.3343521</v>
+      <c r="E1002" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>28</v>
       </c>
       <c r="G1002">
         <v>1</v>
@@ -32310,11 +32307,11 @@
       <c r="C1005" t="s">
         <v>1268</v>
       </c>
-      <c r="E1005" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1005" t="s">
-        <v>28</v>
+      <c r="E1005">
+        <v>23.0925218</v>
+      </c>
+      <c r="F1005">
+        <v>121.3607456</v>
       </c>
       <c r="G1005">
         <v>1</v>
@@ -32336,11 +32333,11 @@
       <c r="C1006" t="s">
         <v>1269</v>
       </c>
-      <c r="E1006">
-        <v>23.0925218</v>
-      </c>
-      <c r="F1006">
-        <v>121.3607456</v>
+      <c r="E1006" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>28</v>
       </c>
       <c r="G1006">
         <v>1</v>
@@ -32362,11 +32359,11 @@
       <c r="C1007" t="s">
         <v>1270</v>
       </c>
-      <c r="E1007" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1007" t="s">
-        <v>28</v>
+      <c r="E1007">
+        <v>22.9451684</v>
+      </c>
+      <c r="F1007">
+        <v>121.2799066</v>
       </c>
       <c r="G1007">
         <v>1</v>
@@ -32415,10 +32412,10 @@
         <v>1272</v>
       </c>
       <c r="E1009">
-        <v>22.9451684</v>
+        <v>25.051396</v>
       </c>
       <c r="F1009">
-        <v>121.2799066</v>
+        <v>121.46849400000001</v>
       </c>
       <c r="G1009">
         <v>1</v>
@@ -32440,11 +32437,11 @@
       <c r="C1010" t="s">
         <v>1273</v>
       </c>
-      <c r="E1010">
-        <v>25.051396</v>
-      </c>
-      <c r="F1010">
-        <v>121.46849400000001</v>
+      <c r="E1010" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>28</v>
       </c>
       <c r="G1010">
         <v>1</v>
@@ -32466,11 +32463,11 @@
       <c r="C1011" t="s">
         <v>1274</v>
       </c>
-      <c r="E1011" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1011" t="s">
-        <v>28</v>
+      <c r="E1011">
+        <v>22.999041999999999</v>
+      </c>
+      <c r="F1011">
+        <v>121.28474749999999</v>
       </c>
       <c r="G1011">
         <v>1</v>
@@ -32479,7 +32476,7 @@
         <v>28</v>
       </c>
       <c r="K1011" t="s">
-        <v>28</v>
+        <v>1275</v>
       </c>
       <c r="L1011" t="s">
         <v>28</v>
@@ -32490,13 +32487,13 @@
         <v>39</v>
       </c>
       <c r="C1012" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E1012">
-        <v>22.999041999999999</v>
-      </c>
-      <c r="F1012">
-        <v>121.28474749999999</v>
+        <v>1276</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>28</v>
       </c>
       <c r="G1012">
         <v>1</v>
@@ -32505,7 +32502,7 @@
         <v>28</v>
       </c>
       <c r="K1012" t="s">
-        <v>1276</v>
+        <v>28</v>
       </c>
       <c r="L1012" t="s">
         <v>28</v>
@@ -32518,11 +32515,11 @@
       <c r="C1013" t="s">
         <v>1277</v>
       </c>
-      <c r="E1013" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1013" t="s">
-        <v>28</v>
+      <c r="E1013">
+        <v>22.976154999999999</v>
+      </c>
+      <c r="F1013">
+        <v>121.30501</v>
       </c>
       <c r="G1013">
         <v>1</v>
@@ -32544,11 +32541,11 @@
       <c r="C1014" t="s">
         <v>1278</v>
       </c>
-      <c r="E1014">
-        <v>22.976154999999999</v>
-      </c>
-      <c r="F1014">
-        <v>121.30501</v>
+      <c r="E1014" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>28</v>
       </c>
       <c r="G1014">
         <v>1</v>
@@ -32622,11 +32619,11 @@
       <c r="C1017" t="s">
         <v>1281</v>
       </c>
-      <c r="E1017" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1017" t="s">
-        <v>28</v>
+      <c r="E1017">
+        <v>22.9451684</v>
+      </c>
+      <c r="F1017">
+        <v>121.2799066</v>
       </c>
       <c r="G1017">
         <v>1</v>
@@ -32675,10 +32672,10 @@
         <v>1283</v>
       </c>
       <c r="E1019">
-        <v>22.9451684</v>
+        <v>22.900696</v>
       </c>
       <c r="F1019">
-        <v>121.2799066</v>
+        <v>121.24652500000001</v>
       </c>
       <c r="G1019">
         <v>1</v>
@@ -32701,10 +32698,10 @@
         <v>1284</v>
       </c>
       <c r="E1020">
-        <v>22.900696</v>
+        <v>22.874137600000001</v>
       </c>
       <c r="F1020">
-        <v>121.24652500000001</v>
+        <v>121.23220240000001</v>
       </c>
       <c r="G1020">
         <v>1</v>
@@ -32713,7 +32710,7 @@
         <v>28</v>
       </c>
       <c r="K1020" t="s">
-        <v>28</v>
+        <v>1285</v>
       </c>
       <c r="L1020" t="s">
         <v>28</v>
@@ -32724,13 +32721,13 @@
         <v>39</v>
       </c>
       <c r="C1021" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E1021">
-        <v>22.874137600000001</v>
+        <v>22.868491200000001</v>
       </c>
       <c r="F1021">
-        <v>121.23220240000001</v>
+        <v>121.21811169999999</v>
       </c>
       <c r="G1021">
         <v>1</v>
@@ -32739,7 +32736,7 @@
         <v>28</v>
       </c>
       <c r="K1021" t="s">
-        <v>1286</v>
+        <v>28</v>
       </c>
       <c r="L1021" t="s">
         <v>28</v>
@@ -32753,10 +32750,10 @@
         <v>1287</v>
       </c>
       <c r="E1022">
-        <v>22.868491200000001</v>
+        <v>22.876919300000001</v>
       </c>
       <c r="F1022">
-        <v>121.21811169999999</v>
+        <v>121.2373815</v>
       </c>
       <c r="G1022">
         <v>1</v>
@@ -32779,10 +32776,10 @@
         <v>1288</v>
       </c>
       <c r="E1023">
-        <v>22.876919300000001</v>
+        <v>22.976154999999999</v>
       </c>
       <c r="F1023">
-        <v>121.2373815</v>
+        <v>121.30501</v>
       </c>
       <c r="G1023">
         <v>1</v>
@@ -32805,10 +32802,10 @@
         <v>1289</v>
       </c>
       <c r="E1024">
-        <v>22.976154999999999</v>
+        <v>22.8609382</v>
       </c>
       <c r="F1024">
-        <v>121.30501</v>
+        <v>121.20182869999999</v>
       </c>
       <c r="G1024">
         <v>1</v>
@@ -32857,10 +32854,10 @@
         <v>1291</v>
       </c>
       <c r="E1026">
-        <v>22.8609382</v>
+        <v>23.230161500000001</v>
       </c>
       <c r="F1026">
-        <v>121.20182869999999</v>
+        <v>121.4142714</v>
       </c>
       <c r="G1026">
         <v>1</v>
@@ -32883,10 +32880,10 @@
         <v>1292</v>
       </c>
       <c r="E1027">
-        <v>23.230161500000001</v>
+        <v>23.2537612</v>
       </c>
       <c r="F1027">
-        <v>121.4142714</v>
+        <v>121.41297299999999</v>
       </c>
       <c r="G1027">
         <v>1</v>
@@ -32909,10 +32906,10 @@
         <v>1293</v>
       </c>
       <c r="E1028">
-        <v>23.2537612</v>
+        <v>23.395558000000001</v>
       </c>
       <c r="F1028">
-        <v>121.41297299999999</v>
+        <v>121.477362</v>
       </c>
       <c r="G1028">
         <v>1</v>
@@ -32921,7 +32918,7 @@
         <v>28</v>
       </c>
       <c r="K1028" t="s">
-        <v>28</v>
+        <v>1294</v>
       </c>
       <c r="L1028" t="s">
         <v>28</v>
@@ -32932,13 +32929,13 @@
         <v>39</v>
       </c>
       <c r="C1029" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E1029">
-        <v>23.395558000000001</v>
+        <v>23.313238599999998</v>
       </c>
       <c r="F1029">
-        <v>121.477362</v>
+        <v>121.4576782</v>
       </c>
       <c r="G1029">
         <v>1</v>
@@ -32947,7 +32944,7 @@
         <v>28</v>
       </c>
       <c r="K1029" t="s">
-        <v>1295</v>
+        <v>28</v>
       </c>
       <c r="L1029" t="s">
         <v>28</v>
@@ -32961,10 +32958,10 @@
         <v>1296</v>
       </c>
       <c r="E1030">
-        <v>23.313238599999998</v>
+        <v>23.343142400000001</v>
       </c>
       <c r="F1030">
-        <v>121.4576782</v>
+        <v>121.4670138</v>
       </c>
       <c r="G1030">
         <v>1</v>
@@ -32987,10 +32984,10 @@
         <v>1297</v>
       </c>
       <c r="E1031">
-        <v>23.343142400000001</v>
+        <v>23.395558000000001</v>
       </c>
       <c r="F1031">
-        <v>121.4670138</v>
+        <v>121.477362</v>
       </c>
       <c r="G1031">
         <v>1</v>
@@ -33039,10 +33036,10 @@
         <v>1299</v>
       </c>
       <c r="E1033">
-        <v>23.395558000000001</v>
+        <v>23.406421000000002</v>
       </c>
       <c r="F1033">
-        <v>121.477362</v>
+        <v>121.4552317</v>
       </c>
       <c r="G1033">
         <v>1</v>
@@ -33065,10 +33062,10 @@
         <v>1300</v>
       </c>
       <c r="E1034">
-        <v>23.406421000000002</v>
+        <v>23.295714</v>
       </c>
       <c r="F1034">
-        <v>121.4552317</v>
+        <v>121.4364429</v>
       </c>
       <c r="G1034">
         <v>1</v>
@@ -33091,10 +33088,10 @@
         <v>1301</v>
       </c>
       <c r="E1035">
-        <v>23.295714</v>
+        <v>23.343142400000001</v>
       </c>
       <c r="F1035">
-        <v>121.4364429</v>
+        <v>121.4670138</v>
       </c>
       <c r="G1035">
         <v>1</v>
@@ -33117,10 +33114,10 @@
         <v>1302</v>
       </c>
       <c r="E1036">
-        <v>23.343142400000001</v>
+        <v>23.117733099999999</v>
       </c>
       <c r="F1036">
-        <v>121.4670138</v>
+        <v>121.1741359</v>
       </c>
       <c r="G1036">
         <v>1</v>
@@ -33142,11 +33139,11 @@
       <c r="C1037" t="s">
         <v>1303</v>
       </c>
-      <c r="E1037">
-        <v>23.117733099999999</v>
-      </c>
-      <c r="F1037">
-        <v>121.1741359</v>
+      <c r="E1037" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>28</v>
       </c>
       <c r="G1037">
         <v>1</v>
@@ -33168,11 +33165,11 @@
       <c r="C1038" t="s">
         <v>1304</v>
       </c>
-      <c r="E1038" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1038" t="s">
-        <v>28</v>
+      <c r="E1038">
+        <v>23.1041667</v>
+      </c>
+      <c r="F1038">
+        <v>121.1952778</v>
       </c>
       <c r="G1038">
         <v>1</v>
@@ -33195,10 +33192,10 @@
         <v>1305</v>
       </c>
       <c r="E1039">
-        <v>23.1041667</v>
+        <v>22.349416699999999</v>
       </c>
       <c r="F1039">
-        <v>121.1952778</v>
+        <v>120.8906221</v>
       </c>
       <c r="G1039">
         <v>1</v>
@@ -33221,10 +33218,10 @@
         <v>1306</v>
       </c>
       <c r="E1040">
-        <v>22.349416699999999</v>
+        <v>22.339654599999999</v>
       </c>
       <c r="F1040">
-        <v>120.8906221</v>
+        <v>120.89409620000001</v>
       </c>
       <c r="G1040">
         <v>1</v>
@@ -33246,23 +33243,29 @@
       <c r="C1041" t="s">
         <v>1307</v>
       </c>
+      <c r="D1041" t="s">
+        <v>1380</v>
+      </c>
       <c r="E1041">
-        <v>22.339654599999999</v>
+        <v>22.3715476</v>
       </c>
       <c r="F1041">
-        <v>120.89409620000001</v>
+        <v>120.8324528</v>
       </c>
       <c r="G1041">
         <v>1</v>
       </c>
+      <c r="I1041">
+        <v>1</v>
+      </c>
       <c r="J1041" t="s">
-        <v>28</v>
+        <v>1308</v>
       </c>
       <c r="K1041" t="s">
         <v>28</v>
       </c>
       <c r="L1041" t="s">
-        <v>28</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1042" spans="2:12">
@@ -33270,16 +33273,16 @@
         <v>39</v>
       </c>
       <c r="C1042" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D1042" t="s">
         <v>1381</v>
       </c>
       <c r="E1042">
-        <v>22.3715476</v>
+        <v>22.295961599999998</v>
       </c>
       <c r="F1042">
-        <v>120.8324528</v>
+        <v>120.8725007</v>
       </c>
       <c r="G1042">
         <v>1</v>
@@ -33288,45 +33291,39 @@
         <v>1</v>
       </c>
       <c r="J1042" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="K1042" t="s">
         <v>28</v>
       </c>
       <c r="L1042" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1043" spans="2:12">
       <c r="B1043" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C1043" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>1382</v>
+        <v>1311</v>
       </c>
       <c r="E1043">
-        <v>22.295961599999998</v>
+        <v>23.512976399999999</v>
       </c>
       <c r="F1043">
-        <v>120.8725007</v>
+        <v>119.5910799</v>
       </c>
       <c r="G1043">
         <v>1</v>
       </c>
-      <c r="I1043">
-        <v>1</v>
-      </c>
       <c r="J1043" t="s">
-        <v>1311</v>
+        <v>28</v>
       </c>
       <c r="K1043" t="s">
-        <v>28</v>
+        <v>1312</v>
       </c>
       <c r="L1043" t="s">
-        <v>1311</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1044" spans="2:12">
@@ -33334,7 +33331,7 @@
         <v>77</v>
       </c>
       <c r="C1044" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E1044">
         <v>23.512976399999999</v>
@@ -33342,14 +33339,14 @@
       <c r="F1044">
         <v>119.5910799</v>
       </c>
-      <c r="G1044">
+      <c r="H1044">
         <v>1</v>
       </c>
       <c r="J1044" t="s">
-        <v>28</v>
+        <v>1314</v>
       </c>
       <c r="K1044" t="s">
-        <v>1313</v>
+        <v>28</v>
       </c>
       <c r="L1044" t="s">
         <v>28</v>
@@ -33357,22 +33354,22 @@
     </row>
     <row r="1045" spans="2:12">
       <c r="B1045" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="C1045" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E1045">
-        <v>23.512976399999999</v>
+        <v>24.485938900000001</v>
       </c>
       <c r="F1045">
-        <v>119.5910799</v>
-      </c>
-      <c r="H1045">
+        <v>118.41160290000001</v>
+      </c>
+      <c r="G1045">
         <v>1</v>
       </c>
       <c r="J1045" t="s">
-        <v>1315</v>
+        <v>28</v>
       </c>
       <c r="K1045" t="s">
         <v>28</v>
@@ -33389,10 +33386,10 @@
         <v>1316</v>
       </c>
       <c r="E1046">
-        <v>24.485938900000001</v>
+        <v>24.427387400000001</v>
       </c>
       <c r="F1046">
-        <v>118.41160290000001</v>
+        <v>118.31646720000001</v>
       </c>
       <c r="G1046">
         <v>1</v>
@@ -33415,10 +33412,10 @@
         <v>1317</v>
       </c>
       <c r="E1047">
-        <v>24.427387400000001</v>
+        <v>24.428479599999999</v>
       </c>
       <c r="F1047">
-        <v>118.31646720000001</v>
+        <v>118.4581019</v>
       </c>
       <c r="G1047">
         <v>1</v>
@@ -33441,10 +33438,10 @@
         <v>1318</v>
       </c>
       <c r="E1048">
-        <v>24.428479599999999</v>
+        <v>24.418189999999999</v>
       </c>
       <c r="F1048">
-        <v>118.4581019</v>
+        <v>118.30128000000001</v>
       </c>
       <c r="G1048">
         <v>1</v>
@@ -33467,10 +33464,10 @@
         <v>1319</v>
       </c>
       <c r="E1049">
-        <v>24.418189999999999</v>
+        <v>24.431495699999999</v>
       </c>
       <c r="F1049">
-        <v>118.30128000000001</v>
+        <v>118.310112</v>
       </c>
       <c r="G1049">
         <v>1</v>
@@ -33492,11 +33489,11 @@
       <c r="C1050" t="s">
         <v>1320</v>
       </c>
-      <c r="E1050">
-        <v>24.431495699999999</v>
-      </c>
-      <c r="F1050">
-        <v>118.310112</v>
+      <c r="E1050" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>28</v>
       </c>
       <c r="G1050">
         <v>1</v>
@@ -33518,11 +33515,11 @@
       <c r="C1051" t="s">
         <v>1321</v>
       </c>
-      <c r="E1051" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1051" t="s">
-        <v>28</v>
+      <c r="E1051">
+        <v>24.477336099999999</v>
+      </c>
+      <c r="F1051">
+        <v>118.4594635</v>
       </c>
       <c r="G1051">
         <v>1</v>
@@ -33545,10 +33542,10 @@
         <v>1322</v>
       </c>
       <c r="E1052">
-        <v>24.477336099999999</v>
+        <v>24.394262000000001</v>
       </c>
       <c r="F1052">
-        <v>118.4594635</v>
+        <v>118.315584</v>
       </c>
       <c r="G1052">
         <v>1</v>
@@ -33571,10 +33568,10 @@
         <v>1323</v>
       </c>
       <c r="E1053">
-        <v>24.394262000000001</v>
+        <v>24.468962000000001</v>
       </c>
       <c r="F1053">
-        <v>118.315584</v>
+        <v>118.30675290000001</v>
       </c>
       <c r="G1053">
         <v>1</v>
@@ -33597,10 +33594,10 @@
         <v>1324</v>
       </c>
       <c r="E1054">
-        <v>24.468962000000001</v>
+        <v>24.437466799999999</v>
       </c>
       <c r="F1054">
-        <v>118.30675290000001</v>
+        <v>118.42513750000001</v>
       </c>
       <c r="G1054">
         <v>1</v>
@@ -33623,10 +33620,10 @@
         <v>1325</v>
       </c>
       <c r="E1055">
-        <v>24.437466799999999</v>
+        <v>24.447550199999998</v>
       </c>
       <c r="F1055">
-        <v>118.42513750000001</v>
+        <v>118.41485470000001</v>
       </c>
       <c r="G1055">
         <v>1</v>
@@ -33649,10 +33646,10 @@
         <v>1326</v>
       </c>
       <c r="E1056">
-        <v>24.447550199999998</v>
+        <v>24.447196300000002</v>
       </c>
       <c r="F1056">
-        <v>118.41485470000001</v>
+        <v>118.473356</v>
       </c>
       <c r="G1056">
         <v>1</v>
@@ -33675,10 +33672,10 @@
         <v>1327</v>
       </c>
       <c r="E1057">
-        <v>24.447196300000002</v>
+        <v>24.4878207</v>
       </c>
       <c r="F1057">
-        <v>118.473356</v>
+        <v>118.4078363</v>
       </c>
       <c r="G1057">
         <v>1</v>
@@ -33701,10 +33698,10 @@
         <v>1328</v>
       </c>
       <c r="E1058">
-        <v>24.4878207</v>
+        <v>24.477336099999999</v>
       </c>
       <c r="F1058">
-        <v>118.4078363</v>
+        <v>118.4594635</v>
       </c>
       <c r="G1058">
         <v>1</v>
@@ -33727,10 +33724,10 @@
         <v>1329</v>
       </c>
       <c r="E1059">
-        <v>24.477336099999999</v>
+        <v>24.452586</v>
       </c>
       <c r="F1059">
-        <v>118.4594635</v>
+        <v>118.38099699999999</v>
       </c>
       <c r="G1059">
         <v>1</v>
@@ -33753,10 +33750,10 @@
         <v>1330</v>
       </c>
       <c r="E1060">
-        <v>24.452586</v>
+        <v>24.441617900000001</v>
       </c>
       <c r="F1060">
-        <v>118.38099699999999</v>
+        <v>118.46145629999999</v>
       </c>
       <c r="G1060">
         <v>1</v>
@@ -33779,10 +33776,10 @@
         <v>1331</v>
       </c>
       <c r="E1061">
-        <v>24.441617900000001</v>
+        <v>24.423611099999999</v>
       </c>
       <c r="F1061">
-        <v>118.46145629999999</v>
+        <v>118.22555560000001</v>
       </c>
       <c r="G1061">
         <v>1</v>
@@ -33805,10 +33802,10 @@
         <v>1332</v>
       </c>
       <c r="E1062">
-        <v>24.423611099999999</v>
+        <v>24.425002800000001</v>
       </c>
       <c r="F1062">
-        <v>118.22555560000001</v>
+        <v>118.2597583</v>
       </c>
       <c r="G1062">
         <v>1</v>
@@ -33831,10 +33828,10 @@
         <v>1333</v>
       </c>
       <c r="E1063">
-        <v>24.425002800000001</v>
+        <v>23.629825</v>
       </c>
       <c r="F1063">
-        <v>118.2597583</v>
+        <v>113.01550400000001</v>
       </c>
       <c r="G1063">
         <v>1</v>
@@ -33857,10 +33854,10 @@
         <v>1334</v>
       </c>
       <c r="E1064">
-        <v>23.629825</v>
+        <v>24.430198900000001</v>
       </c>
       <c r="F1064">
-        <v>113.01550400000001</v>
+        <v>118.31027330000001</v>
       </c>
       <c r="G1064">
         <v>1</v>
@@ -33883,10 +33880,10 @@
         <v>1335</v>
       </c>
       <c r="E1065">
-        <v>24.430198900000001</v>
+        <v>24.449115200000001</v>
       </c>
       <c r="F1065">
-        <v>118.31027330000001</v>
+        <v>118.24424399999999</v>
       </c>
       <c r="G1065">
         <v>1</v>
@@ -33908,11 +33905,11 @@
       <c r="C1066" t="s">
         <v>1336</v>
       </c>
-      <c r="E1066">
-        <v>24.449115200000001</v>
-      </c>
-      <c r="F1066">
-        <v>118.24424399999999</v>
+      <c r="E1066" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>28</v>
       </c>
       <c r="G1066">
         <v>1</v>
@@ -33934,11 +33931,11 @@
       <c r="C1067" t="s">
         <v>1337</v>
       </c>
-      <c r="E1067" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1067" t="s">
-        <v>28</v>
+      <c r="E1067">
+        <v>24.401752999999999</v>
+      </c>
+      <c r="F1067">
+        <v>118.33563700000001</v>
       </c>
       <c r="G1067">
         <v>1</v>
@@ -33961,10 +33958,10 @@
         <v>1338</v>
       </c>
       <c r="E1068">
-        <v>24.401752999999999</v>
+        <v>24.411505900000002</v>
       </c>
       <c r="F1068">
-        <v>118.33563700000001</v>
+        <v>118.3421529</v>
       </c>
       <c r="G1068">
         <v>1</v>
@@ -33981,16 +33978,16 @@
     </row>
     <row r="1069" spans="2:12">
       <c r="B1069" t="s">
-        <v>276</v>
+        <v>1339</v>
       </c>
       <c r="C1069" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E1069">
-        <v>24.411505900000002</v>
+        <v>26.155482299999999</v>
       </c>
       <c r="F1069">
-        <v>118.3421529</v>
+        <v>119.95134109999999</v>
       </c>
       <c r="G1069">
         <v>1</v>
@@ -34007,16 +34004,16 @@
     </row>
     <row r="1070" spans="2:12">
       <c r="B1070" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1070" t="s">
         <v>1341</v>
       </c>
       <c r="E1070">
-        <v>26.155482299999999</v>
+        <v>26.2053139</v>
       </c>
       <c r="F1070">
-        <v>119.95134109999999</v>
+        <v>119.9688081</v>
       </c>
       <c r="G1070">
         <v>1</v>
@@ -34033,16 +34030,16 @@
     </row>
     <row r="1071" spans="2:12">
       <c r="B1071" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1071" t="s">
         <v>1342</v>
       </c>
       <c r="E1071">
-        <v>26.2053139</v>
+        <v>26.160186599999999</v>
       </c>
       <c r="F1071">
-        <v>119.9688081</v>
+        <v>119.94198419999999</v>
       </c>
       <c r="G1071">
         <v>1</v>
@@ -34059,16 +34056,16 @@
     </row>
     <row r="1072" spans="2:12">
       <c r="B1072" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1072" t="s">
         <v>1343</v>
       </c>
       <c r="E1072">
-        <v>26.160186599999999</v>
+        <v>26.214205</v>
       </c>
       <c r="F1072">
-        <v>119.94198419999999</v>
+        <v>119.974732</v>
       </c>
       <c r="G1072">
         <v>1</v>
@@ -34085,16 +34082,16 @@
     </row>
     <row r="1073" spans="2:12">
       <c r="B1073" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1073" t="s">
         <v>1344</v>
       </c>
       <c r="E1073">
-        <v>26.214205</v>
+        <v>26.141024699999999</v>
       </c>
       <c r="F1073">
-        <v>119.974732</v>
+        <v>119.92568900000001</v>
       </c>
       <c r="G1073">
         <v>1</v>
@@ -34111,16 +34108,16 @@
     </row>
     <row r="1074" spans="2:12">
       <c r="B1074" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1074" t="s">
         <v>1345</v>
       </c>
       <c r="E1074">
-        <v>26.141024699999999</v>
+        <v>25.966334</v>
       </c>
       <c r="F1074">
-        <v>119.92568900000001</v>
+        <v>119.9353627</v>
       </c>
       <c r="G1074">
         <v>1</v>
@@ -34137,16 +34134,16 @@
     </row>
     <row r="1075" spans="2:12">
       <c r="B1075" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1075" t="s">
         <v>1346</v>
       </c>
       <c r="E1075">
-        <v>25.966334</v>
+        <v>26.376667000000001</v>
       </c>
       <c r="F1075">
-        <v>119.9353627</v>
+        <v>120.50666699999999</v>
       </c>
       <c r="G1075">
         <v>1</v>
@@ -34163,16 +34160,16 @@
     </row>
     <row r="1076" spans="2:12">
       <c r="B1076" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1076" t="s">
         <v>1347</v>
       </c>
       <c r="E1076">
-        <v>26.376667000000001</v>
+        <v>25.967825999999999</v>
       </c>
       <c r="F1076">
-        <v>120.50666699999999</v>
+        <v>119.98219</v>
       </c>
       <c r="G1076">
         <v>1</v>
@@ -34187,39 +34184,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1077" spans="2:12">
-      <c r="B1077" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E1077">
-        <v>25.967825999999999</v>
-      </c>
-      <c r="F1077">
-        <v>119.98219</v>
-      </c>
-      <c r="G1077">
-        <v>1</v>
-      </c>
-      <c r="J1077" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1077" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1077" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AA1077" xr:uid="{1FBD1C73-BE60-BA4A-A452-0CE062669395}"/>
+  <autoFilter ref="A1:AA1076" xr:uid="{1FBD1C73-BE60-BA4A-A452-0CE062669395}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E1053:F1053 J1:AA1077 H1053:I1053 E1054:I1077 E1:I1052 A1:C1077" numberStoredAsText="1"/>
+    <ignoredError sqref="E1052:F1052 J1:AA872 H1052:I1052 E1053:I1076 E1:I872 A1:C872 J873:AA1076 E873:I1051 A873:C1076" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/warning_rivers.xlsx
+++ b/docs/warning_rivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/water-safety/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC95947-9AC2-3841-8EC8-E73FF7AD751F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9B455-BDA1-304A-84B0-A3436404A4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4127,10 +4127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A至B點連線海域禁止從事橡皮艇活動。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>禁止水域遊憩活動。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4209,6 +4205,10 @@
   <si>
     <t>announcement</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A至B點連線海域禁止從事橡皮艇活動 A點為瑞芳象鼻岩端點，座標：( N：25°08’08.1"；E：121°49’35.4") B點為臺2縣75公里處岬角，座標：( N：25°07’42.5"；E：121°50’03.2")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4276,8 +4276,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4620,13 +4623,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A863" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L873" sqref="A873:XFD873"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D543" sqref="D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4641,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -20154,15 +20158,15 @@
         <v>692</v>
       </c>
     </row>
-    <row r="542" spans="2:12">
+    <row r="542" spans="2:12" ht="16">
       <c r="B542" t="s">
         <v>26</v>
       </c>
       <c r="C542" t="s">
         <v>693</v>
       </c>
-      <c r="D542" t="s">
-        <v>1362</v>
+      <c r="D542" s="1" t="s">
+        <v>1382</v>
       </c>
       <c r="E542">
         <v>25.132590700000002</v>
@@ -20272,7 +20276,7 @@
         <v>699</v>
       </c>
       <c r="D546" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E546">
         <v>25.069658199999999</v>
@@ -20327,7 +20331,7 @@
         <v>702</v>
       </c>
       <c r="D548" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E548">
         <v>25.165324999999999</v>
@@ -20642,7 +20646,7 @@
         <v>718</v>
       </c>
       <c r="D560" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E560">
         <v>25.134901500000002</v>
@@ -22344,7 +22348,7 @@
         <v>809</v>
       </c>
       <c r="D625" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E625" t="s">
         <v>28</v>
@@ -24557,7 +24561,7 @@
         <v>904</v>
       </c>
       <c r="D710" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E710">
         <v>24.199398299999999</v>
@@ -24716,7 +24720,7 @@
         <v>913</v>
       </c>
       <c r="D716" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E716">
         <v>24.287486000000001</v>
@@ -24774,7 +24778,7 @@
         <v>917</v>
       </c>
       <c r="D718" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E718">
         <v>24.294800299999999</v>
@@ -25245,7 +25249,7 @@
         <v>942</v>
       </c>
       <c r="D736" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E736">
         <v>24.126391999999999</v>
@@ -25404,7 +25408,7 @@
         <v>949</v>
       </c>
       <c r="D742" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E742">
         <v>24.026333300000001</v>
@@ -25462,7 +25466,7 @@
         <v>953</v>
       </c>
       <c r="D744" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E744" t="s">
         <v>28</v>
@@ -25491,7 +25495,7 @@
         <v>955</v>
       </c>
       <c r="D745" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E745">
         <v>23.642138200000002</v>
@@ -25549,7 +25553,7 @@
         <v>958</v>
       </c>
       <c r="D747" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E747">
         <v>23.718204</v>
@@ -25581,7 +25585,7 @@
         <v>960</v>
       </c>
       <c r="D748" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E748">
         <v>23.7819641</v>
@@ -25613,7 +25617,7 @@
         <v>962</v>
       </c>
       <c r="D749" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E749">
         <v>23.6951</v>
@@ -25671,7 +25675,7 @@
         <v>965</v>
       </c>
       <c r="D751" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E751">
         <v>23.891942</v>
@@ -25755,7 +25759,7 @@
         <v>971</v>
       </c>
       <c r="D754" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E754">
         <v>23.601258399999999</v>
@@ -25992,7 +25996,7 @@
         <v>984</v>
       </c>
       <c r="D763" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E763" t="s">
         <v>28</v>
@@ -28699,7 +28703,7 @@
         <v>1120</v>
       </c>
       <c r="D867" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E867" t="s">
         <v>28</v>
@@ -28832,7 +28836,7 @@
         <v>1126</v>
       </c>
       <c r="D872" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E872">
         <v>24.776599999999998</v>
@@ -29179,7 +29183,7 @@
         <v>1140</v>
       </c>
       <c r="D885" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E885">
         <v>22.7531204</v>
@@ -30768,7 +30772,7 @@
         <v>1204</v>
       </c>
       <c r="D946" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E946">
         <v>22.462393800000001</v>
@@ -30901,7 +30905,7 @@
         <v>1213</v>
       </c>
       <c r="D951" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E951">
         <v>22.580004899999999</v>
@@ -33244,7 +33248,7 @@
         <v>1307</v>
       </c>
       <c r="D1041" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E1041">
         <v>22.3715476</v>
@@ -33276,7 +33280,7 @@
         <v>1309</v>
       </c>
       <c r="D1042" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E1042">
         <v>22.295961599999998</v>

--- a/docs/warning_rivers.xlsx
+++ b/docs/warning_rivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/water-safety/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9B455-BDA1-304A-84B0-A3436404A4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD60C191-8D45-5447-8099-3AFCAF2EAEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8500" yWindow="1920" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="warning_rivers" sheetId="1" r:id="rId1"/>
@@ -4215,17 +4215,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4233,21 +4233,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4283,7 +4283,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{1C170DB4-4EEB-1E4C-A872-D4379F4EC718}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4623,18 +4623,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D543" sqref="D543"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>49</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>46</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>71</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>32</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>80</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>91</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>91</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>80</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>29</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>51</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>49</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>64</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:22">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>128</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>49</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>64</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>51</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>44</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>80</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>51</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>138</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>64</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>73</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>54</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:22">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>49</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:22">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>54</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>107</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>29</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>54</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:25">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>29</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:25">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>80</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:25">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>39</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:25">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>49</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>46</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:25">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>49</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:25">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>73</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:25">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>158</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:25">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>91</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:25">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>29</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:25">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>46</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>29</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:25">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>91</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:25">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>54</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:25">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>107</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:25">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>29</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:25">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>91</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>51</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>32</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:25">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>46</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>51</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:25">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>26</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:25">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>49</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:25">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>51</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:25">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>51</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>32</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:25">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>26</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:25">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>107</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:25">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>71</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:25">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>107</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:25">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>54</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>51</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:25">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>51</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:25">
+    <row r="114" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>80</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:25">
+    <row r="115" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>54</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:25">
+    <row r="116" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>49</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:25">
+    <row r="117" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>26</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:25">
+    <row r="118" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>49</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:25">
+    <row r="119" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>44</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:25">
+    <row r="120" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>80</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:25">
+    <row r="121" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>46</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:25">
+    <row r="122" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>26</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:25">
+    <row r="123" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>26</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:25">
+    <row r="124" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>29</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:25">
+    <row r="125" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>32</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:25">
+    <row r="126" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>64</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:25">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>39</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:25">
+    <row r="128" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>51</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:24">
+    <row r="129" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>46</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:24">
+    <row r="130" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>80</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:24">
+    <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>80</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:24">
+    <row r="132" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>54</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:24">
+    <row r="133" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>26</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:24">
+    <row r="134" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>49</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:24">
+    <row r="135" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>39</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:24">
+    <row r="136" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>39</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:24">
+    <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>80</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="2:24">
+    <row r="138" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>71</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:24">
+    <row r="139" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>29</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:24">
+    <row r="140" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>44</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:24">
+    <row r="141" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>54</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:24">
+    <row r="142" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>71</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:24">
+    <row r="143" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>39</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:24">
+    <row r="144" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>80</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:26">
+    <row r="145" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>39</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:26">
+    <row r="146" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>64</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:26">
+    <row r="147" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>26</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:26">
+    <row r="148" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>29</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:26">
+    <row r="149" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>77</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:26">
+    <row r="150" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>51</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:26">
+    <row r="151" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>91</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:26">
+    <row r="152" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>26</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="2:26">
+    <row r="153" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>54</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:26">
+    <row r="154" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>26</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:26">
+    <row r="155" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>32</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:26">
+    <row r="156" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>107</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:26">
+    <row r="157" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>46</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:26">
+    <row r="158" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>46</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:26">
+    <row r="159" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>158</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:26">
+    <row r="160" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>77</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:23">
+    <row r="161" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>44</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="2:23">
+    <row r="162" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>80</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:23">
+    <row r="163" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>39</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:23">
+    <row r="164" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>26</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:23">
+    <row r="165" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>46</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:23">
+    <row r="166" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>49</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:23">
+    <row r="167" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>64</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:23">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>80</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:23">
+    <row r="169" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>128</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:23">
+    <row r="170" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>26</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:23">
+    <row r="171" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>26</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:23">
+    <row r="172" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>80</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:23">
+    <row r="173" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>29</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:23">
+    <row r="174" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>29</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:23">
+    <row r="175" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>46</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:23">
+    <row r="176" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>77</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:25">
+    <row r="177" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>32</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:25">
+    <row r="178" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>51</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:25">
+    <row r="179" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>276</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="2:25">
+    <row r="180" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>73</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:25">
+    <row r="181" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>32</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:25">
+    <row r="182" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>54</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:25">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>91</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:25">
+    <row r="184" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>26</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:25">
+    <row r="185" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>32</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:25">
+    <row r="186" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>54</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:25">
+    <row r="187" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>80</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:25">
+    <row r="188" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>71</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="2:25">
+    <row r="189" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>51</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:25">
+    <row r="190" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>29</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:25">
+    <row r="191" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>51</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:25">
+    <row r="192" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>39</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:26">
+    <row r="193" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>54</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:26">
+    <row r="194" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>49</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:26">
+    <row r="195" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>298</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:26">
+    <row r="196" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>77</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:26">
+    <row r="197" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>32</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:26">
+    <row r="198" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>26</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:26">
+    <row r="199" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>73</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:26">
+    <row r="200" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>26</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="2:26">
+    <row r="201" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>26</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:26">
+    <row r="202" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>26</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:26">
+    <row r="203" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>71</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:26">
+    <row r="204" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>32</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:26">
+    <row r="205" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>32</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:26">
+    <row r="206" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>51</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:26">
+    <row r="207" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>51</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:26">
+    <row r="208" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>29</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:26">
+    <row r="209" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>73</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:26">
+    <row r="210" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>51</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:26">
+    <row r="211" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>73</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:26">
+    <row r="212" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>51</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:26">
+    <row r="213" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>64</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:26">
+    <row r="214" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>80</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:26">
+    <row r="215" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>29</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:26">
+    <row r="216" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>39</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:26">
+    <row r="217" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>32</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="2:26">
+    <row r="218" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>49</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:26">
+    <row r="219" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>44</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:26">
+    <row r="220" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>91</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:26">
+    <row r="221" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>64</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:26">
+    <row r="222" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>32</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:26">
+    <row r="223" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>51</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:26">
+    <row r="224" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>54</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:25">
+    <row r="225" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>26</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:25">
+    <row r="226" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>32</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:25">
+    <row r="227" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>26</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:25">
+    <row r="228" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>26</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:25">
+    <row r="229" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>26</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:25">
+    <row r="230" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>29</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:25">
+    <row r="231" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>80</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:25">
+    <row r="232" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>29</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:25">
+    <row r="233" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>39</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:25">
+    <row r="234" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>32</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:25">
+    <row r="235" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>49</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:25">
+    <row r="236" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>85</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:25">
+    <row r="237" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>49</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:25">
+    <row r="238" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>44</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:25">
+    <row r="239" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>51</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:25">
+    <row r="240" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>73</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:19">
+    <row r="241" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>29</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:19">
+    <row r="242" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>44</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:19">
+    <row r="243" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>29</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:19">
+    <row r="244" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>91</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:19">
+    <row r="245" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>51</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:19">
+    <row r="246" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>80</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:19">
+    <row r="247" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>91</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:19">
+    <row r="248" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>51</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:19">
+    <row r="249" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>107</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:19">
+    <row r="250" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>32</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:19">
+    <row r="251" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>29</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:19">
+    <row r="252" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>46</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:19">
+    <row r="253" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>91</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:19">
+    <row r="254" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>39</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:19">
+    <row r="255" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>39</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:19">
+    <row r="256" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>46</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:25">
+    <row r="257" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>64</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:25">
+    <row r="258" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>381</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:25">
+    <row r="259" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>51</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:25">
+    <row r="260" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>51</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="2:25">
+    <row r="261" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>158</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:25">
+    <row r="262" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>73</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:25">
+    <row r="263" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>107</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:25">
+    <row r="264" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>80</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:25">
+    <row r="265" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>39</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:25">
+    <row r="266" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>26</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:25">
+    <row r="267" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>39</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:25">
+    <row r="268" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>80</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:25">
+    <row r="269" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>51</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:25">
+    <row r="270" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>29</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:25">
+    <row r="271" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>29</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:25">
+    <row r="272" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>91</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:26">
+    <row r="273" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>64</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:26">
+    <row r="274" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>44</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:26">
+    <row r="275" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>77</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:26">
+    <row r="276" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>26</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:26">
+    <row r="277" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>51</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:26">
+    <row r="278" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>32</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:26">
+    <row r="279" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>32</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:26">
+    <row r="280" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>128</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:26">
+    <row r="281" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>71</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:26">
+    <row r="282" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>51</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:26">
+    <row r="283" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>107</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:26">
+    <row r="284" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>32</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:26">
+    <row r="285" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>54</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:26">
+    <row r="286" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>32</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:26">
+    <row r="287" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>64</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:26">
+    <row r="288" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>51</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:25">
+    <row r="289" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>80</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:25">
+    <row r="290" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>32</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:25">
+    <row r="291" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>158</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:25">
+    <row r="292" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>44</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:25">
+    <row r="293" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>26</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:25">
+    <row r="294" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>91</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:25">
+    <row r="295" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>29</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:25">
+    <row r="296" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>80</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:25">
+    <row r="297" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>91</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:25">
+    <row r="298" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>29</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:25">
+    <row r="299" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>71</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:25">
+    <row r="300" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>26</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:25">
+    <row r="301" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>29</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:25">
+    <row r="302" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>51</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:25">
+    <row r="303" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>54</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="2:25">
+    <row r="304" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>49</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:26">
+    <row r="305" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>39</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:26">
+    <row r="306" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>26</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:26">
+    <row r="307" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>80</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:26">
+    <row r="308" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>29</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="2:26">
+    <row r="309" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>26</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:26">
+    <row r="310" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>71</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:26">
+    <row r="311" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>26</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:26">
+    <row r="312" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>71</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:26">
+    <row r="313" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>73</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:26">
+    <row r="314" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>107</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:26">
+    <row r="315" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>46</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:26">
+    <row r="316" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>46</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="2:26">
+    <row r="317" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>91</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:26">
+    <row r="318" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>32</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:26">
+    <row r="319" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>64</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:26">
+    <row r="320" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>128</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:27">
+    <row r="321" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>49</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:27">
+    <row r="322" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>29</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:27">
+    <row r="323" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>64</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:27">
+    <row r="324" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>39</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:27">
+    <row r="325" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>39</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:27">
+    <row r="326" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>39</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:27">
+    <row r="327" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>39</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="2:27">
+    <row r="328" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>39</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:27">
+    <row r="329" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>128</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="330" spans="2:27">
+    <row r="330" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>128</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="2:27">
+    <row r="331" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>128</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="332" spans="2:27">
+    <row r="332" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>128</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="333" spans="2:27">
+    <row r="333" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>128</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="334" spans="2:27">
+    <row r="334" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>128</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="335" spans="2:27">
+    <row r="335" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>128</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="336" spans="2:27">
+    <row r="336" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>128</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" spans="2:12">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>128</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="338" spans="2:12">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>128</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="339" spans="2:12">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>128</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="2:12">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>128</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="2:12">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>128</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="2:12">
+    <row r="342" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>128</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="2:12">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>128</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="2:12">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>128</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="2:12">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>128</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="2:12">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>128</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="2:12">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>128</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="2:12">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>128</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="2:12">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>128</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="350" spans="2:12">
+    <row r="350" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>128</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="2:12">
+    <row r="351" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>128</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="2:12">
+    <row r="352" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>128</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="2:12">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>128</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" spans="2:12">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>128</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="2:12">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>128</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="2:12">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>128</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="2:12">
+    <row r="357" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>128</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="2:12">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>128</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="2:12">
+    <row r="359" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>128</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="360" spans="2:12">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>128</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="2:12">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>128</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="2:12">
+    <row r="362" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>128</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="363" spans="2:12">
+    <row r="363" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>128</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="364" spans="2:12">
+    <row r="364" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>26</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="2:12">
+    <row r="365" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>26</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="2:12">
+    <row r="366" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>26</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="367" spans="2:12">
+    <row r="367" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>26</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="2:12">
+    <row r="368" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>26</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="369" spans="2:12">
+    <row r="369" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>26</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="2:12">
+    <row r="370" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>26</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="2:12">
+    <row r="371" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>26</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="372" spans="2:12">
+    <row r="372" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>26</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="2:12">
+    <row r="373" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>26</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="2:12">
+    <row r="374" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>26</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="375" spans="2:12">
+    <row r="375" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>26</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="2:12">
+    <row r="376" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>26</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="2:12">
+    <row r="377" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>26</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="378" spans="2:12">
+    <row r="378" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>26</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="2:12">
+    <row r="379" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>26</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="2:12">
+    <row r="380" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>26</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="2:12">
+    <row r="381" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>26</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="2:12">
+    <row r="382" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>26</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="2:12">
+    <row r="383" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>26</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="2:12">
+    <row r="384" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>26</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="2:12">
+    <row r="385" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>26</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" spans="2:12">
+    <row r="386" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>26</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="2:12">
+    <row r="387" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>26</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="388" spans="2:12">
+    <row r="388" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>26</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="389" spans="2:12">
+    <row r="389" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>26</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="390" spans="2:12">
+    <row r="390" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>26</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="391" spans="2:12">
+    <row r="391" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>26</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="2:12">
+    <row r="392" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>26</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="393" spans="2:12">
+    <row r="393" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>26</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="394" spans="2:12">
+    <row r="394" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>26</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="395" spans="2:12">
+    <row r="395" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>26</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="396" spans="2:12">
+    <row r="396" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>26</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="397" spans="2:12">
+    <row r="397" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>26</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="2:12">
+    <row r="398" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>26</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="399" spans="2:12">
+    <row r="399" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>26</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="2:12">
+    <row r="400" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>26</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="401" spans="2:12">
+    <row r="401" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>26</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="402" spans="2:12">
+    <row r="402" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>26</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="403" spans="2:12">
+    <row r="403" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>26</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" spans="2:12">
+    <row r="404" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>26</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="405" spans="2:12">
+    <row r="405" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>26</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="2:12">
+    <row r="406" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>26</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="2:12">
+    <row r="407" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>26</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="408" spans="2:12">
+    <row r="408" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>26</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="409" spans="2:12">
+    <row r="409" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>26</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" spans="2:12">
+    <row r="410" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>26</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="2:12">
+    <row r="411" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>26</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="412" spans="2:12">
+    <row r="412" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>26</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="2:12">
+    <row r="413" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>26</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="414" spans="2:12">
+    <row r="414" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>26</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="415" spans="2:12">
+    <row r="415" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>26</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="416" spans="2:12">
+    <row r="416" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>26</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="417" spans="2:12">
+    <row r="417" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>26</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="418" spans="2:12">
+    <row r="418" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>26</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="2:12">
+    <row r="419" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>26</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="420" spans="2:12">
+    <row r="420" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>26</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="421" spans="2:12">
+    <row r="421" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>26</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="2:12">
+    <row r="422" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>26</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="423" spans="2:12">
+    <row r="423" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>26</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="424" spans="2:12">
+    <row r="424" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>26</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="2:12">
+    <row r="425" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>26</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="426" spans="2:12">
+    <row r="426" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>26</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="427" spans="2:12">
+    <row r="427" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>26</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="2:12">
+    <row r="428" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>26</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="429" spans="2:12">
+    <row r="429" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>26</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="2:12">
+    <row r="430" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>26</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="2:12">
+    <row r="431" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>26</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="432" spans="2:12">
+    <row r="432" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>26</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="2:12">
+    <row r="433" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>26</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="2:12">
+    <row r="434" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>26</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="2:12">
+    <row r="435" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>26</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="2:12">
+    <row r="436" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>26</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="2:12">
+    <row r="437" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>26</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="438" spans="2:12">
+    <row r="438" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>26</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="2:12">
+    <row r="439" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>26</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="2:12">
+    <row r="440" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>26</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="441" spans="2:12">
+    <row r="441" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>26</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="442" spans="2:12">
+    <row r="442" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>26</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="443" spans="2:12">
+    <row r="443" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>26</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="444" spans="2:12">
+    <row r="444" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>26</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="445" spans="2:12">
+    <row r="445" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>26</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="446" spans="2:12">
+    <row r="446" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>26</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="447" spans="2:12">
+    <row r="447" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>26</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="448" spans="2:12">
+    <row r="448" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>26</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="449" spans="2:12">
+    <row r="449" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>26</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="2:12">
+    <row r="450" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>26</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="451" spans="2:12">
+    <row r="451" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>26</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="452" spans="2:12">
+    <row r="452" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>26</v>
       </c>
@@ -17844,7 +17844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="2:12">
+    <row r="453" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>26</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="2:12">
+    <row r="454" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>26</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="455" spans="2:12">
+    <row r="455" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>26</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="456" spans="2:12">
+    <row r="456" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>26</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="2:12">
+    <row r="457" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>26</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="458" spans="2:12">
+    <row r="458" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>26</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="459" spans="2:12">
+    <row r="459" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>26</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="2:12">
+    <row r="460" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>26</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="2:12">
+    <row r="461" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>26</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="462" spans="2:12">
+    <row r="462" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>26</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="463" spans="2:12">
+    <row r="463" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>26</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="464" spans="2:12">
+    <row r="464" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>26</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="465" spans="2:12">
+    <row r="465" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>26</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="2:12">
+    <row r="466" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>26</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="467" spans="2:12">
+    <row r="467" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>26</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="468" spans="2:12">
+    <row r="468" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>26</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="469" spans="2:12">
+    <row r="469" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>26</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="470" spans="2:12">
+    <row r="470" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>26</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="471" spans="2:12">
+    <row r="471" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>26</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="472" spans="2:12">
+    <row r="472" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>26</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="473" spans="2:12">
+    <row r="473" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>26</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="474" spans="2:12">
+    <row r="474" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>26</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="475" spans="2:12">
+    <row r="475" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>26</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="476" spans="2:12">
+    <row r="476" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>26</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="477" spans="2:12">
+    <row r="477" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>26</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="478" spans="2:12">
+    <row r="478" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>26</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="2:12">
+    <row r="479" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>26</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="480" spans="2:12">
+    <row r="480" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>26</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="481" spans="2:12">
+    <row r="481" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>26</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="2:12">
+    <row r="482" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>26</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="483" spans="2:12">
+    <row r="483" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>26</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="484" spans="2:12">
+    <row r="484" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>26</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="485" spans="2:12">
+    <row r="485" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>26</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="2:12">
+    <row r="486" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>26</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="487" spans="2:12">
+    <row r="487" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>26</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="488" spans="2:12">
+    <row r="488" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>26</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="489" spans="2:12">
+    <row r="489" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>26</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="490" spans="2:12">
+    <row r="490" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>26</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="491" spans="2:12">
+    <row r="491" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>26</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="492" spans="2:12">
+    <row r="492" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>26</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="493" spans="2:12">
+    <row r="493" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>26</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="494" spans="2:12">
+    <row r="494" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>26</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="495" spans="2:12">
+    <row r="495" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>26</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="496" spans="2:12">
+    <row r="496" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>26</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="497" spans="2:12">
+    <row r="497" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>26</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="498" spans="2:12">
+    <row r="498" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>26</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="499" spans="2:12">
+    <row r="499" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>26</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="2:12">
+    <row r="500" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>26</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="501" spans="2:12">
+    <row r="501" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>26</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="502" spans="2:12">
+    <row r="502" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
         <v>26</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="2:12">
+    <row r="503" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>26</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="2:12">
+    <row r="504" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>26</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="505" spans="2:12">
+    <row r="505" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
         <v>26</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="506" spans="2:12">
+    <row r="506" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>26</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="2:12">
+    <row r="507" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>26</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="2:12">
+    <row r="508" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>26</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="509" spans="2:12">
+    <row r="509" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>26</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="510" spans="2:12">
+    <row r="510" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B510" t="s">
         <v>26</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="511" spans="2:12">
+    <row r="511" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>26</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="512" spans="2:12">
+    <row r="512" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>26</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="513" spans="2:12">
+    <row r="513" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>26</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="514" spans="2:12">
+    <row r="514" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>26</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="515" spans="2:12">
+    <row r="515" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>26</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="516" spans="2:12">
+    <row r="516" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>26</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="517" spans="2:12">
+    <row r="517" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>26</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="518" spans="2:12">
+    <row r="518" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>26</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="519" spans="2:12">
+    <row r="519" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>26</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="520" spans="2:12">
+    <row r="520" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>26</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="521" spans="2:12">
+    <row r="521" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>26</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="522" spans="2:12">
+    <row r="522" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>26</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="523" spans="2:12">
+    <row r="523" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B523" t="s">
         <v>26</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="524" spans="2:12">
+    <row r="524" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>26</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="525" spans="2:12">
+    <row r="525" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>26</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="526" spans="2:12">
+    <row r="526" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>26</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="527" spans="2:12">
+    <row r="527" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B527" t="s">
         <v>26</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="528" spans="2:12">
+    <row r="528" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>26</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="529" spans="2:12">
+    <row r="529" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B529" t="s">
         <v>26</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="530" spans="2:12">
+    <row r="530" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B530" t="s">
         <v>26</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" spans="2:12">
+    <row r="531" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>26</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="532" spans="2:12">
+    <row r="532" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B532" t="s">
         <v>26</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="533" spans="2:12">
+    <row r="533" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
         <v>26</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="534" spans="2:12">
+    <row r="534" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
         <v>26</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="2:12">
+    <row r="535" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B535" t="s">
         <v>26</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="536" spans="2:12">
+    <row r="536" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
         <v>26</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="2:12">
+    <row r="537" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>26</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="538" spans="2:12">
+    <row r="538" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
         <v>26</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="539" spans="2:12">
+    <row r="539" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>26</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="540" spans="2:12">
+    <row r="540" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
         <v>26</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="541" spans="2:12">
+    <row r="541" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
         <v>26</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="542" spans="2:12" ht="16">
+    <row r="542" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
         <v>26</v>
       </c>
@@ -20187,7 +20187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="543" spans="2:12">
+    <row r="543" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
         <v>26</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="544" spans="2:12">
+    <row r="544" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
         <v>26</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="545" spans="2:12">
+    <row r="545" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
         <v>26</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="546" spans="2:12">
+    <row r="546" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B546" t="s">
         <v>26</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="547" spans="2:12">
+    <row r="547" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
         <v>44</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="548" spans="2:12">
+    <row r="548" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
         <v>44</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="549" spans="2:12">
+    <row r="549" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
         <v>44</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="550" spans="2:12">
+    <row r="550" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>44</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="551" spans="2:12">
+    <row r="551" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
         <v>44</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="552" spans="2:12">
+    <row r="552" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B552" t="s">
         <v>44</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="553" spans="2:12">
+    <row r="553" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
         <v>44</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="554" spans="2:12">
+    <row r="554" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
         <v>44</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="555" spans="2:12">
+    <row r="555" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
         <v>44</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="556" spans="2:12">
+    <row r="556" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
         <v>44</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="557" spans="2:12">
+    <row r="557" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B557" t="s">
         <v>44</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="558" spans="2:12">
+    <row r="558" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
         <v>44</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="559" spans="2:12">
+    <row r="559" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B559" t="s">
         <v>44</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="560" spans="2:12">
+    <row r="560" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B560" t="s">
         <v>44</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="561" spans="2:12">
+    <row r="561" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>49</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="562" spans="2:12">
+    <row r="562" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B562" t="s">
         <v>49</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="563" spans="2:12">
+    <row r="563" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>49</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="564" spans="2:12">
+    <row r="564" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>49</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="565" spans="2:12">
+    <row r="565" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
         <v>49</v>
       </c>
@@ -20797,7 +20797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="566" spans="2:12">
+    <row r="566" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>49</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="567" spans="2:12">
+    <row r="567" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>49</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="568" spans="2:12">
+    <row r="568" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B568" t="s">
         <v>49</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="569" spans="2:12">
+    <row r="569" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B569" t="s">
         <v>49</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="570" spans="2:12">
+    <row r="570" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B570" t="s">
         <v>49</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="571" spans="2:12">
+    <row r="571" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B571" t="s">
         <v>49</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="572" spans="2:12">
+    <row r="572" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B572" t="s">
         <v>85</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="573" spans="2:12">
+    <row r="573" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B573" t="s">
         <v>85</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="574" spans="2:12">
+    <row r="574" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B574" t="s">
         <v>85</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="575" spans="2:12">
+    <row r="575" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B575" t="s">
         <v>85</v>
       </c>
@@ -21057,7 +21057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="576" spans="2:12">
+    <row r="576" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B576" t="s">
         <v>85</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="577" spans="2:12">
+    <row r="577" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B577" t="s">
         <v>85</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="578" spans="2:12">
+    <row r="578" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B578" t="s">
         <v>85</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="579" spans="2:12">
+    <row r="579" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B579" t="s">
         <v>91</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="580" spans="2:12">
+    <row r="580" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B580" t="s">
         <v>91</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="581" spans="2:12">
+    <row r="581" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B581" t="s">
         <v>91</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="582" spans="2:12">
+    <row r="582" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B582" t="s">
         <v>91</v>
       </c>
@@ -21242,7 +21242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="583" spans="2:12">
+    <row r="583" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B583" t="s">
         <v>91</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="584" spans="2:12">
+    <row r="584" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B584" t="s">
         <v>91</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="585" spans="2:12">
+    <row r="585" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B585" t="s">
         <v>91</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="586" spans="2:12">
+    <row r="586" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B586" t="s">
         <v>91</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="587" spans="2:12">
+    <row r="587" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B587" t="s">
         <v>91</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="588" spans="2:12">
+    <row r="588" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B588" t="s">
         <v>91</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="589" spans="2:12">
+    <row r="589" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B589" t="s">
         <v>91</v>
       </c>
@@ -21427,7 +21427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="590" spans="2:12">
+    <row r="590" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B590" t="s">
         <v>91</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="591" spans="2:12">
+    <row r="591" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B591" t="s">
         <v>91</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="592" spans="2:12">
+    <row r="592" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
         <v>91</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="593" spans="2:12">
+    <row r="593" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B593" t="s">
         <v>91</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="594" spans="2:12">
+    <row r="594" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B594" t="s">
         <v>91</v>
       </c>
@@ -21557,7 +21557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="595" spans="2:12">
+    <row r="595" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B595" t="s">
         <v>91</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="596" spans="2:12">
+    <row r="596" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B596" t="s">
         <v>91</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="597" spans="2:12">
+    <row r="597" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B597" t="s">
         <v>91</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="598" spans="2:12">
+    <row r="598" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B598" t="s">
         <v>91</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="599" spans="2:12">
+    <row r="599" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B599" t="s">
         <v>91</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="600" spans="2:12">
+    <row r="600" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B600" t="s">
         <v>91</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="601" spans="2:12">
+    <row r="601" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B601" t="s">
         <v>54</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="602" spans="2:12">
+    <row r="602" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B602" t="s">
         <v>54</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="603" spans="2:12">
+    <row r="603" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B603" t="s">
         <v>54</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="604" spans="2:12">
+    <row r="604" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B604" t="s">
         <v>54</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="605" spans="2:12">
+    <row r="605" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B605" t="s">
         <v>54</v>
       </c>
@@ -21846,7 +21846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="606" spans="2:12">
+    <row r="606" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B606" t="s">
         <v>54</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="607" spans="2:12">
+    <row r="607" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B607" t="s">
         <v>54</v>
       </c>
@@ -21898,7 +21898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="608" spans="2:12">
+    <row r="608" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B608" t="s">
         <v>54</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="609" spans="2:12">
+    <row r="609" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B609" t="s">
         <v>54</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="610" spans="2:12">
+    <row r="610" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B610" t="s">
         <v>54</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="611" spans="2:12">
+    <row r="611" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B611" t="s">
         <v>54</v>
       </c>
@@ -22002,7 +22002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="612" spans="2:12">
+    <row r="612" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B612" t="s">
         <v>54</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="613" spans="2:12">
+    <row r="613" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B613" t="s">
         <v>54</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="614" spans="2:12">
+    <row r="614" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B614" t="s">
         <v>54</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="615" spans="2:12">
+    <row r="615" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B615" t="s">
         <v>54</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="616" spans="2:12">
+    <row r="616" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B616" t="s">
         <v>54</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="617" spans="2:12">
+    <row r="617" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B617" t="s">
         <v>54</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="618" spans="2:12">
+    <row r="618" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B618" t="s">
         <v>54</v>
       </c>
@@ -22184,7 +22184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="619" spans="2:12">
+    <row r="619" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B619" t="s">
         <v>54</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="620" spans="2:12">
+    <row r="620" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B620" t="s">
         <v>54</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="621" spans="2:12">
+    <row r="621" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B621" t="s">
         <v>54</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="622" spans="2:12">
+    <row r="622" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B622" t="s">
         <v>54</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="623" spans="2:12">
+    <row r="623" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B623" t="s">
         <v>54</v>
       </c>
@@ -22314,7 +22314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="624" spans="2:12">
+    <row r="624" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B624" t="s">
         <v>54</v>
       </c>
@@ -22340,7 +22340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="625" spans="2:12">
+    <row r="625" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B625" t="s">
         <v>54</v>
       </c>
@@ -22369,7 +22369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="626" spans="2:12">
+    <row r="626" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B626" t="s">
         <v>54</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="627" spans="2:12">
+    <row r="627" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B627" t="s">
         <v>54</v>
       </c>
@@ -22421,7 +22421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="628" spans="2:12">
+    <row r="628" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B628" t="s">
         <v>54</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="629" spans="2:12">
+    <row r="629" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B629" t="s">
         <v>54</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="630" spans="2:12">
+    <row r="630" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B630" t="s">
         <v>54</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="631" spans="2:12">
+    <row r="631" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B631" t="s">
         <v>54</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="632" spans="2:12">
+    <row r="632" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B632" t="s">
         <v>54</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="633" spans="2:12">
+    <row r="633" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B633" t="s">
         <v>54</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="634" spans="2:12">
+    <row r="634" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B634" t="s">
         <v>54</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="635" spans="2:12">
+    <row r="635" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B635" t="s">
         <v>54</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="636" spans="2:12">
+    <row r="636" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B636" t="s">
         <v>54</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="637" spans="2:12">
+    <row r="637" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B637" t="s">
         <v>54</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="638" spans="2:12">
+    <row r="638" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B638" t="s">
         <v>54</v>
       </c>
@@ -22707,7 +22707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="639" spans="2:12">
+    <row r="639" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B639" t="s">
         <v>54</v>
       </c>
@@ -22733,7 +22733,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="640" spans="2:12">
+    <row r="640" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B640" t="s">
         <v>54</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="641" spans="2:12">
+    <row r="641" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B641" t="s">
         <v>54</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="642" spans="2:12">
+    <row r="642" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B642" t="s">
         <v>54</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="643" spans="2:12">
+    <row r="643" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B643" t="s">
         <v>54</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="644" spans="2:12">
+    <row r="644" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B644" t="s">
         <v>54</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="645" spans="2:12">
+    <row r="645" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B645" t="s">
         <v>54</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="646" spans="2:12">
+    <row r="646" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B646" t="s">
         <v>54</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="647" spans="2:12">
+    <row r="647" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B647" t="s">
         <v>54</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="648" spans="2:12">
+    <row r="648" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B648" t="s">
         <v>54</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="649" spans="2:12">
+    <row r="649" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B649" t="s">
         <v>54</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="650" spans="2:12">
+    <row r="650" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B650" t="s">
         <v>54</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="651" spans="2:12">
+    <row r="651" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B651" t="s">
         <v>54</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="652" spans="2:12">
+    <row r="652" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B652" t="s">
         <v>54</v>
       </c>
@@ -23071,7 +23071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="653" spans="2:12">
+    <row r="653" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B653" t="s">
         <v>54</v>
       </c>
@@ -23097,7 +23097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="654" spans="2:12">
+    <row r="654" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B654" t="s">
         <v>54</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="2:12">
+    <row r="655" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B655" t="s">
         <v>54</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="656" spans="2:12">
+    <row r="656" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B656" t="s">
         <v>54</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="657" spans="2:12">
+    <row r="657" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B657" t="s">
         <v>54</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="658" spans="2:12">
+    <row r="658" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B658" t="s">
         <v>54</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="659" spans="2:12">
+    <row r="659" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B659" t="s">
         <v>54</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="660" spans="2:12">
+    <row r="660" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B660" t="s">
         <v>54</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="661" spans="2:12">
+    <row r="661" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B661" t="s">
         <v>54</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="662" spans="2:12">
+    <row r="662" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B662" t="s">
         <v>54</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="663" spans="2:12">
+    <row r="663" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B663" t="s">
         <v>54</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="664" spans="2:12">
+    <row r="664" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B664" t="s">
         <v>54</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="665" spans="2:12">
+    <row r="665" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B665" t="s">
         <v>54</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="666" spans="2:12">
+    <row r="666" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B666" t="s">
         <v>54</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="667" spans="2:12">
+    <row r="667" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B667" t="s">
         <v>54</v>
       </c>
@@ -23461,7 +23461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="668" spans="2:12">
+    <row r="668" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B668" t="s">
         <v>54</v>
       </c>
@@ -23487,7 +23487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="669" spans="2:12">
+    <row r="669" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B669" t="s">
         <v>54</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="670" spans="2:12">
+    <row r="670" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B670" t="s">
         <v>54</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="671" spans="2:12">
+    <row r="671" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B671" t="s">
         <v>54</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="672" spans="2:12">
+    <row r="672" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B672" t="s">
         <v>54</v>
       </c>
@@ -23591,7 +23591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="673" spans="2:12">
+    <row r="673" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B673" t="s">
         <v>54</v>
       </c>
@@ -23617,7 +23617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="674" spans="2:12">
+    <row r="674" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B674" t="s">
         <v>54</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="675" spans="2:12">
+    <row r="675" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B675" t="s">
         <v>54</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="676" spans="2:12">
+    <row r="676" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B676" t="s">
         <v>54</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="677" spans="2:12">
+    <row r="677" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B677" t="s">
         <v>54</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="678" spans="2:12">
+    <row r="678" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B678" t="s">
         <v>54</v>
       </c>
@@ -23747,7 +23747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="679" spans="2:12">
+    <row r="679" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B679" t="s">
         <v>54</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="680" spans="2:12">
+    <row r="680" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B680" t="s">
         <v>54</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="681" spans="2:12">
+    <row r="681" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B681" t="s">
         <v>54</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="682" spans="2:12">
+    <row r="682" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B682" t="s">
         <v>54</v>
       </c>
@@ -23851,7 +23851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="683" spans="2:12">
+    <row r="683" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B683" t="s">
         <v>54</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="684" spans="2:12">
+    <row r="684" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B684" t="s">
         <v>54</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="685" spans="2:12">
+    <row r="685" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B685" t="s">
         <v>54</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="686" spans="2:12">
+    <row r="686" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B686" t="s">
         <v>54</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="687" spans="2:12">
+    <row r="687" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B687" t="s">
         <v>54</v>
       </c>
@@ -23981,7 +23981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="688" spans="2:12">
+    <row r="688" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B688" t="s">
         <v>54</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="689" spans="2:12">
+    <row r="689" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B689" t="s">
         <v>54</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="690" spans="2:12">
+    <row r="690" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B690" t="s">
         <v>54</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="691" spans="2:12">
+    <row r="691" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B691" t="s">
         <v>54</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="692" spans="2:12">
+    <row r="692" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B692" t="s">
         <v>54</v>
       </c>
@@ -24111,7 +24111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="693" spans="2:12">
+    <row r="693" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B693" t="s">
         <v>54</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="694" spans="2:12">
+    <row r="694" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B694" t="s">
         <v>54</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="695" spans="2:12">
+    <row r="695" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B695" t="s">
         <v>54</v>
       </c>
@@ -24189,7 +24189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="696" spans="2:12">
+    <row r="696" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B696" t="s">
         <v>54</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="697" spans="2:12">
+    <row r="697" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B697" t="s">
         <v>54</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="698" spans="2:12">
+    <row r="698" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B698" t="s">
         <v>54</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="699" spans="2:12">
+    <row r="699" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B699" t="s">
         <v>54</v>
       </c>
@@ -24293,7 +24293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="700" spans="2:12">
+    <row r="700" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B700" t="s">
         <v>54</v>
       </c>
@@ -24319,7 +24319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="701" spans="2:12">
+    <row r="701" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B701" t="s">
         <v>54</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="702" spans="2:12">
+    <row r="702" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B702" t="s">
         <v>54</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="703" spans="2:12">
+    <row r="703" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B703" t="s">
         <v>54</v>
       </c>
@@ -24397,7 +24397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="704" spans="2:12">
+    <row r="704" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B704" t="s">
         <v>54</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="705" spans="2:12">
+    <row r="705" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B705" t="s">
         <v>32</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="706" spans="2:12">
+    <row r="706" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B706" t="s">
         <v>32</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="707" spans="2:12">
+    <row r="707" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B707" t="s">
         <v>32</v>
       </c>
@@ -24501,7 +24501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="708" spans="2:12">
+    <row r="708" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B708" t="s">
         <v>32</v>
       </c>
@@ -24527,7 +24527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="709" spans="2:12">
+    <row r="709" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B709" t="s">
         <v>32</v>
       </c>
@@ -24553,7 +24553,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="710" spans="2:12">
+    <row r="710" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B710" t="s">
         <v>32</v>
       </c>
@@ -24582,7 +24582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="711" spans="2:12">
+    <row r="711" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B711" t="s">
         <v>32</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="712" spans="2:12">
+    <row r="712" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B712" t="s">
         <v>32</v>
       </c>
@@ -24634,7 +24634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="713" spans="2:12">
+    <row r="713" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B713" t="s">
         <v>32</v>
       </c>
@@ -24660,7 +24660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="714" spans="2:12">
+    <row r="714" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B714" t="s">
         <v>32</v>
       </c>
@@ -24686,7 +24686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="715" spans="2:12">
+    <row r="715" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B715" t="s">
         <v>32</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="716" spans="2:12">
+    <row r="716" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B716" t="s">
         <v>32</v>
       </c>
@@ -24744,7 +24744,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="717" spans="2:12">
+    <row r="717" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B717" t="s">
         <v>32</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="718" spans="2:12">
+    <row r="718" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B718" t="s">
         <v>32</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="719" spans="2:12">
+    <row r="719" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B719" t="s">
         <v>32</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="720" spans="2:12">
+    <row r="720" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B720" t="s">
         <v>32</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="721" spans="2:12">
+    <row r="721" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B721" t="s">
         <v>32</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="722" spans="2:12">
+    <row r="722" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B722" t="s">
         <v>32</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="723" spans="2:12">
+    <row r="723" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B723" t="s">
         <v>32</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="724" spans="2:12">
+    <row r="724" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B724" t="s">
         <v>32</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="725" spans="2:12">
+    <row r="725" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B725" t="s">
         <v>32</v>
       </c>
@@ -24981,7 +24981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="726" spans="2:12">
+    <row r="726" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B726" t="s">
         <v>32</v>
       </c>
@@ -25007,7 +25007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="727" spans="2:12">
+    <row r="727" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B727" t="s">
         <v>32</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="728" spans="2:12">
+    <row r="728" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B728" t="s">
         <v>32</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="729" spans="2:12">
+    <row r="729" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B729" t="s">
         <v>32</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="730" spans="2:12">
+    <row r="730" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B730" t="s">
         <v>32</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="731" spans="2:12">
+    <row r="731" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B731" t="s">
         <v>32</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="732" spans="2:12">
+    <row r="732" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B732" t="s">
         <v>32</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="733" spans="2:12">
+    <row r="733" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B733" t="s">
         <v>32</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="734" spans="2:12">
+    <row r="734" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B734" t="s">
         <v>32</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="735" spans="2:12">
+    <row r="735" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B735" t="s">
         <v>32</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="736" spans="2:12">
+    <row r="736" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B736" t="s">
         <v>32</v>
       </c>
@@ -25270,7 +25270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="737" spans="2:12">
+    <row r="737" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B737" t="s">
         <v>73</v>
       </c>
@@ -25296,7 +25296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="738" spans="2:12">
+    <row r="738" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B738" t="s">
         <v>73</v>
       </c>
@@ -25322,7 +25322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="739" spans="2:12">
+    <row r="739" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B739" t="s">
         <v>73</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="740" spans="2:12">
+    <row r="740" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B740" t="s">
         <v>73</v>
       </c>
@@ -25374,7 +25374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="741" spans="2:12">
+    <row r="741" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B741" t="s">
         <v>73</v>
       </c>
@@ -25400,7 +25400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="742" spans="2:12">
+    <row r="742" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B742" t="s">
         <v>107</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="743" spans="2:12">
+    <row r="743" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B743" t="s">
         <v>107</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="744" spans="2:12">
+    <row r="744" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B744" t="s">
         <v>107</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="745" spans="2:12">
+    <row r="745" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B745" t="s">
         <v>107</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="746" spans="2:12">
+    <row r="746" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B746" t="s">
         <v>107</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="747" spans="2:12">
+    <row r="747" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B747" t="s">
         <v>107</v>
       </c>
@@ -25577,7 +25577,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="748" spans="2:12">
+    <row r="748" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B748" t="s">
         <v>107</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="749" spans="2:12">
+    <row r="749" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B749" t="s">
         <v>107</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="750" spans="2:12">
+    <row r="750" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B750" t="s">
         <v>107</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="751" spans="2:12">
+    <row r="751" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B751" t="s">
         <v>107</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="752" spans="2:12">
+    <row r="752" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B752" t="s">
         <v>158</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="753" spans="2:12">
+    <row r="753" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B753" t="s">
         <v>158</v>
       </c>
@@ -25751,7 +25751,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="754" spans="2:12">
+    <row r="754" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B754" t="s">
         <v>158</v>
       </c>
@@ -25780,7 +25780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="755" spans="2:12">
+    <row r="755" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B755" t="s">
         <v>973</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="756" spans="2:12">
+    <row r="756" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B756" t="s">
         <v>973</v>
       </c>
@@ -25832,7 +25832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="757" spans="2:12">
+    <row r="757" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B757" t="s">
         <v>973</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="758" spans="2:12">
+    <row r="758" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B758" t="s">
         <v>973</v>
       </c>
@@ -25884,7 +25884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="759" spans="2:12">
+    <row r="759" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B759" t="s">
         <v>71</v>
       </c>
@@ -25910,7 +25910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="760" spans="2:12">
+    <row r="760" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B760" t="s">
         <v>80</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="761" spans="2:12">
+    <row r="761" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B761" t="s">
         <v>80</v>
       </c>
@@ -25962,7 +25962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="762" spans="2:12">
+    <row r="762" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B762" t="s">
         <v>80</v>
       </c>
@@ -25988,7 +25988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="763" spans="2:12">
+    <row r="763" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B763" t="s">
         <v>80</v>
       </c>
@@ -26017,7 +26017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="764" spans="2:12">
+    <row r="764" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B764" t="s">
         <v>51</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="765" spans="2:12">
+    <row r="765" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B765" t="s">
         <v>51</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="766" spans="2:12">
+    <row r="766" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B766" t="s">
         <v>51</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="767" spans="2:12">
+    <row r="767" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B767" t="s">
         <v>51</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="768" spans="2:12">
+    <row r="768" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B768" t="s">
         <v>51</v>
       </c>
@@ -26147,7 +26147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="769" spans="2:12">
+    <row r="769" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B769" t="s">
         <v>51</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="770" spans="2:12">
+    <row r="770" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B770" t="s">
         <v>51</v>
       </c>
@@ -26199,7 +26199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="771" spans="2:12">
+    <row r="771" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B771" t="s">
         <v>51</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="772" spans="2:12">
+    <row r="772" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B772" t="s">
         <v>51</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="773" spans="2:12">
+    <row r="773" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B773" t="s">
         <v>51</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="774" spans="2:12">
+    <row r="774" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B774" t="s">
         <v>51</v>
       </c>
@@ -26303,7 +26303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="775" spans="2:12">
+    <row r="775" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B775" t="s">
         <v>51</v>
       </c>
@@ -26329,7 +26329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="776" spans="2:12">
+    <row r="776" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B776" t="s">
         <v>51</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="777" spans="2:12">
+    <row r="777" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B777" t="s">
         <v>51</v>
       </c>
@@ -26381,7 +26381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="778" spans="2:12">
+    <row r="778" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B778" t="s">
         <v>51</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="779" spans="2:12">
+    <row r="779" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B779" t="s">
         <v>51</v>
       </c>
@@ -26433,7 +26433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="780" spans="2:12">
+    <row r="780" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B780" t="s">
         <v>51</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="781" spans="2:12">
+    <row r="781" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B781" t="s">
         <v>51</v>
       </c>
@@ -26485,7 +26485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="782" spans="2:12">
+    <row r="782" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B782" t="s">
         <v>51</v>
       </c>
@@ -26511,7 +26511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="783" spans="2:12">
+    <row r="783" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B783" t="s">
         <v>51</v>
       </c>
@@ -26537,7 +26537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="784" spans="2:12">
+    <row r="784" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B784" t="s">
         <v>51</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="785" spans="2:12">
+    <row r="785" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B785" t="s">
         <v>51</v>
       </c>
@@ -26589,7 +26589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="786" spans="2:12">
+    <row r="786" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B786" t="s">
         <v>51</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="787" spans="2:12">
+    <row r="787" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
         <v>51</v>
       </c>
@@ -26641,7 +26641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="788" spans="2:12">
+    <row r="788" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B788" t="s">
         <v>51</v>
       </c>
@@ -26667,7 +26667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="789" spans="2:12">
+    <row r="789" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B789" t="s">
         <v>51</v>
       </c>
@@ -26693,7 +26693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="790" spans="2:12">
+    <row r="790" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B790" t="s">
         <v>51</v>
       </c>
@@ -26719,7 +26719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="791" spans="2:12">
+    <row r="791" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B791" t="s">
         <v>29</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="792" spans="2:12">
+    <row r="792" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B792" t="s">
         <v>29</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="793" spans="2:12">
+    <row r="793" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B793" t="s">
         <v>29</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="794" spans="2:12">
+    <row r="794" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B794" t="s">
         <v>29</v>
       </c>
@@ -26823,7 +26823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="795" spans="2:12">
+    <row r="795" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B795" t="s">
         <v>29</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="796" spans="2:12">
+    <row r="796" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B796" t="s">
         <v>29</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="797" spans="2:12">
+    <row r="797" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B797" t="s">
         <v>29</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="798" spans="2:12">
+    <row r="798" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B798" t="s">
         <v>29</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="799" spans="2:12">
+    <row r="799" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B799" t="s">
         <v>29</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="800" spans="2:12">
+    <row r="800" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B800" t="s">
         <v>29</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="801" spans="2:12">
+    <row r="801" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B801" t="s">
         <v>29</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="802" spans="2:12">
+    <row r="802" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B802" t="s">
         <v>29</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="803" spans="2:12">
+    <row r="803" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B803" t="s">
         <v>29</v>
       </c>
@@ -27057,7 +27057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="804" spans="2:12">
+    <row r="804" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B804" t="s">
         <v>29</v>
       </c>
@@ -27083,7 +27083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="805" spans="2:12">
+    <row r="805" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B805" t="s">
         <v>29</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="806" spans="2:12">
+    <row r="806" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B806" t="s">
         <v>29</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="807" spans="2:12">
+    <row r="807" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B807" t="s">
         <v>29</v>
       </c>
@@ -27161,7 +27161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="808" spans="2:12">
+    <row r="808" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B808" t="s">
         <v>29</v>
       </c>
@@ -27187,7 +27187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="809" spans="2:12">
+    <row r="809" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B809" t="s">
         <v>29</v>
       </c>
@@ -27213,7 +27213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="810" spans="2:12">
+    <row r="810" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B810" t="s">
         <v>29</v>
       </c>
@@ -27239,7 +27239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="811" spans="2:12">
+    <row r="811" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B811" t="s">
         <v>29</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="812" spans="2:12">
+    <row r="812" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B812" t="s">
         <v>29</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="813" spans="2:12">
+    <row r="813" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B813" t="s">
         <v>29</v>
       </c>
@@ -27317,7 +27317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="814" spans="2:12">
+    <row r="814" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B814" t="s">
         <v>29</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="815" spans="2:12">
+    <row r="815" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B815" t="s">
         <v>46</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="816" spans="2:12">
+    <row r="816" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B816" t="s">
         <v>46</v>
       </c>
@@ -27395,7 +27395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="817" spans="2:12">
+    <row r="817" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B817" t="s">
         <v>46</v>
       </c>
@@ -27421,7 +27421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="818" spans="2:12">
+    <row r="818" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B818" t="s">
         <v>46</v>
       </c>
@@ -27447,7 +27447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="819" spans="2:12">
+    <row r="819" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B819" t="s">
         <v>46</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="820" spans="2:12">
+    <row r="820" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B820" t="s">
         <v>46</v>
       </c>
@@ -27499,7 +27499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="821" spans="2:12">
+    <row r="821" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B821" t="s">
         <v>46</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="822" spans="2:12">
+    <row r="822" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B822" t="s">
         <v>46</v>
       </c>
@@ -27551,7 +27551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="823" spans="2:12">
+    <row r="823" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B823" t="s">
         <v>46</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="824" spans="2:12">
+    <row r="824" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B824" t="s">
         <v>46</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="825" spans="2:12">
+    <row r="825" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B825" t="s">
         <v>46</v>
       </c>
@@ -27629,7 +27629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="826" spans="2:12">
+    <row r="826" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B826" t="s">
         <v>46</v>
       </c>
@@ -27655,7 +27655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="827" spans="2:12">
+    <row r="827" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B827" t="s">
         <v>46</v>
       </c>
@@ -27681,7 +27681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="828" spans="2:12">
+    <row r="828" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B828" t="s">
         <v>46</v>
       </c>
@@ -27707,7 +27707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="829" spans="2:12">
+    <row r="829" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B829" t="s">
         <v>46</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="830" spans="2:12">
+    <row r="830" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B830" t="s">
         <v>46</v>
       </c>
@@ -27759,7 +27759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="831" spans="2:12">
+    <row r="831" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B831" t="s">
         <v>46</v>
       </c>
@@ -27785,7 +27785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="832" spans="2:12">
+    <row r="832" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B832" t="s">
         <v>46</v>
       </c>
@@ -27811,7 +27811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="833" spans="2:12">
+    <row r="833" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B833" t="s">
         <v>46</v>
       </c>
@@ -27837,7 +27837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="834" spans="2:12">
+    <row r="834" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B834" t="s">
         <v>46</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="835" spans="2:12">
+    <row r="835" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B835" t="s">
         <v>46</v>
       </c>
@@ -27889,7 +27889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="836" spans="2:12">
+    <row r="836" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B836" t="s">
         <v>46</v>
       </c>
@@ -27915,7 +27915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="837" spans="2:12">
+    <row r="837" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B837" t="s">
         <v>46</v>
       </c>
@@ -27941,7 +27941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="838" spans="2:12">
+    <row r="838" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B838" t="s">
         <v>46</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="839" spans="2:12">
+    <row r="839" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B839" t="s">
         <v>46</v>
       </c>
@@ -27993,7 +27993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="840" spans="2:12">
+    <row r="840" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B840" t="s">
         <v>46</v>
       </c>
@@ -28019,7 +28019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="841" spans="2:12">
+    <row r="841" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B841" t="s">
         <v>46</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="842" spans="2:12">
+    <row r="842" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B842" t="s">
         <v>46</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="843" spans="2:12">
+    <row r="843" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B843" t="s">
         <v>46</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="844" spans="2:12">
+    <row r="844" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B844" t="s">
         <v>46</v>
       </c>
@@ -28123,7 +28123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="845" spans="2:12">
+    <row r="845" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B845" t="s">
         <v>46</v>
       </c>
@@ -28149,7 +28149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="846" spans="2:12">
+    <row r="846" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B846" t="s">
         <v>46</v>
       </c>
@@ -28175,7 +28175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="847" spans="2:12">
+    <row r="847" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B847" t="s">
         <v>46</v>
       </c>
@@ -28201,7 +28201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="848" spans="2:12">
+    <row r="848" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B848" t="s">
         <v>46</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="849" spans="2:12">
+    <row r="849" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B849" t="s">
         <v>46</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="850" spans="2:12">
+    <row r="850" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B850" t="s">
         <v>46</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="851" spans="2:12">
+    <row r="851" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B851" t="s">
         <v>46</v>
       </c>
@@ -28305,7 +28305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="852" spans="2:12">
+    <row r="852" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B852" t="s">
         <v>46</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="853" spans="2:12">
+    <row r="853" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B853" t="s">
         <v>46</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="854" spans="2:12">
+    <row r="854" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B854" t="s">
         <v>46</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="855" spans="2:12">
+    <row r="855" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B855" t="s">
         <v>46</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="856" spans="2:12">
+    <row r="856" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B856" t="s">
         <v>46</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="857" spans="2:12">
+    <row r="857" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B857" t="s">
         <v>46</v>
       </c>
@@ -28461,7 +28461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="858" spans="2:12">
+    <row r="858" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B858" t="s">
         <v>46</v>
       </c>
@@ -28487,7 +28487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="859" spans="2:12">
+    <row r="859" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B859" t="s">
         <v>46</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="860" spans="2:12">
+    <row r="860" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B860" t="s">
         <v>46</v>
       </c>
@@ -28539,7 +28539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="861" spans="2:12">
+    <row r="861" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B861" t="s">
         <v>46</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="862" spans="2:12">
+    <row r="862" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B862" t="s">
         <v>46</v>
       </c>
@@ -28591,7 +28591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="863" spans="2:12">
+    <row r="863" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B863" t="s">
         <v>46</v>
       </c>
@@ -28617,7 +28617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="864" spans="2:12">
+    <row r="864" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B864" t="s">
         <v>46</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="865" spans="2:12">
+    <row r="865" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B865" t="s">
         <v>46</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="866" spans="2:12">
+    <row r="866" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B866" t="s">
         <v>46</v>
       </c>
@@ -28695,7 +28695,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="867" spans="2:12">
+    <row r="867" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B867" t="s">
         <v>46</v>
       </c>
@@ -28724,7 +28724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="868" spans="2:12">
+    <row r="868" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B868" t="s">
         <v>46</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="869" spans="2:12">
+    <row r="869" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B869" t="s">
         <v>46</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="870" spans="2:12">
+    <row r="870" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B870" t="s">
         <v>46</v>
       </c>
@@ -28802,7 +28802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="871" spans="2:12">
+    <row r="871" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B871" t="s">
         <v>46</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="872" spans="2:12">
+    <row r="872" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
         <v>46</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="873" spans="2:12">
+    <row r="873" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B873" t="s">
         <v>64</v>
       </c>
@@ -28889,7 +28889,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="874" spans="2:12">
+    <row r="874" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B874" t="s">
         <v>64</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="875" spans="2:12">
+    <row r="875" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B875" t="s">
         <v>64</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="876" spans="2:12">
+    <row r="876" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B876" t="s">
         <v>64</v>
       </c>
@@ -28967,7 +28967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="877" spans="2:12">
+    <row r="877" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B877" t="s">
         <v>64</v>
       </c>
@@ -28993,7 +28993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="878" spans="2:12">
+    <row r="878" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B878" t="s">
         <v>64</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="879" spans="2:12">
+    <row r="879" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B879" t="s">
         <v>64</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="880" spans="2:12">
+    <row r="880" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B880" t="s">
         <v>64</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="881" spans="2:12">
+    <row r="881" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B881" t="s">
         <v>64</v>
       </c>
@@ -29097,7 +29097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="882" spans="2:12">
+    <row r="882" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B882" t="s">
         <v>64</v>
       </c>
@@ -29123,7 +29123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="883" spans="2:12">
+    <row r="883" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B883" t="s">
         <v>39</v>
       </c>
@@ -29149,7 +29149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="884" spans="2:12">
+    <row r="884" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B884" t="s">
         <v>39</v>
       </c>
@@ -29175,7 +29175,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="885" spans="2:12">
+    <row r="885" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B885" t="s">
         <v>39</v>
       </c>
@@ -29204,7 +29204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="886" spans="2:12">
+    <row r="886" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B886" t="s">
         <v>39</v>
       </c>
@@ -29230,7 +29230,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="887" spans="2:12">
+    <row r="887" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B887" t="s">
         <v>39</v>
       </c>
@@ -29256,7 +29256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="888" spans="2:12">
+    <row r="888" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B888" t="s">
         <v>39</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="889" spans="2:12">
+    <row r="889" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B889" t="s">
         <v>39</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="890" spans="2:12">
+    <row r="890" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B890" t="s">
         <v>39</v>
       </c>
@@ -29334,7 +29334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="891" spans="2:12">
+    <row r="891" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B891" t="s">
         <v>39</v>
       </c>
@@ -29360,7 +29360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="892" spans="2:12">
+    <row r="892" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B892" t="s">
         <v>39</v>
       </c>
@@ -29386,7 +29386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="893" spans="2:12">
+    <row r="893" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B893" t="s">
         <v>39</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="894" spans="2:12">
+    <row r="894" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B894" t="s">
         <v>39</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="895" spans="2:12">
+    <row r="895" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B895" t="s">
         <v>39</v>
       </c>
@@ -29464,7 +29464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="896" spans="2:12">
+    <row r="896" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B896" t="s">
         <v>39</v>
       </c>
@@ -29490,7 +29490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="897" spans="2:12">
+    <row r="897" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B897" t="s">
         <v>39</v>
       </c>
@@ -29516,7 +29516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="898" spans="2:12">
+    <row r="898" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B898" t="s">
         <v>39</v>
       </c>
@@ -29542,7 +29542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="899" spans="2:12">
+    <row r="899" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B899" t="s">
         <v>39</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="900" spans="2:12">
+    <row r="900" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B900" t="s">
         <v>39</v>
       </c>
@@ -29594,7 +29594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="901" spans="2:12">
+    <row r="901" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B901" t="s">
         <v>39</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="902" spans="2:12">
+    <row r="902" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B902" t="s">
         <v>39</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="903" spans="2:12">
+    <row r="903" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B903" t="s">
         <v>39</v>
       </c>
@@ -29672,7 +29672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="904" spans="2:12">
+    <row r="904" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B904" t="s">
         <v>39</v>
       </c>
@@ -29698,7 +29698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="905" spans="2:12">
+    <row r="905" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B905" t="s">
         <v>39</v>
       </c>
@@ -29724,7 +29724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="906" spans="2:12">
+    <row r="906" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B906" t="s">
         <v>39</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="907" spans="2:12">
+    <row r="907" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B907" t="s">
         <v>39</v>
       </c>
@@ -29776,7 +29776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="908" spans="2:12">
+    <row r="908" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B908" t="s">
         <v>39</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="909" spans="2:12">
+    <row r="909" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B909" t="s">
         <v>39</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="910" spans="2:12">
+    <row r="910" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B910" t="s">
         <v>39</v>
       </c>
@@ -29854,7 +29854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="911" spans="2:12">
+    <row r="911" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B911" t="s">
         <v>39</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="912" spans="2:12">
+    <row r="912" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B912" t="s">
         <v>39</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="913" spans="2:12">
+    <row r="913" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B913" t="s">
         <v>39</v>
       </c>
@@ -29932,7 +29932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="914" spans="2:12">
+    <row r="914" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B914" t="s">
         <v>39</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="915" spans="2:12">
+    <row r="915" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B915" t="s">
         <v>39</v>
       </c>
@@ -29984,7 +29984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="916" spans="2:12">
+    <row r="916" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B916" t="s">
         <v>39</v>
       </c>
@@ -30010,7 +30010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="917" spans="2:12">
+    <row r="917" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B917" t="s">
         <v>39</v>
       </c>
@@ -30036,7 +30036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="918" spans="2:12">
+    <row r="918" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B918" t="s">
         <v>39</v>
       </c>
@@ -30062,7 +30062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="919" spans="2:12">
+    <row r="919" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B919" t="s">
         <v>39</v>
       </c>
@@ -30088,7 +30088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="920" spans="2:12">
+    <row r="920" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B920" t="s">
         <v>39</v>
       </c>
@@ -30114,7 +30114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="921" spans="2:12">
+    <row r="921" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B921" t="s">
         <v>39</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="922" spans="2:12">
+    <row r="922" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B922" t="s">
         <v>39</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="923" spans="2:12">
+    <row r="923" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B923" t="s">
         <v>39</v>
       </c>
@@ -30192,7 +30192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="924" spans="2:12">
+    <row r="924" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B924" t="s">
         <v>39</v>
       </c>
@@ -30218,7 +30218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="925" spans="2:12">
+    <row r="925" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B925" t="s">
         <v>39</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="926" spans="2:12">
+    <row r="926" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B926" t="s">
         <v>39</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="927" spans="2:12">
+    <row r="927" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B927" t="s">
         <v>39</v>
       </c>
@@ -30296,7 +30296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="928" spans="2:12">
+    <row r="928" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B928" t="s">
         <v>39</v>
       </c>
@@ -30322,7 +30322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="929" spans="2:12">
+    <row r="929" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B929" t="s">
         <v>39</v>
       </c>
@@ -30348,7 +30348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="930" spans="2:12">
+    <row r="930" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B930" t="s">
         <v>39</v>
       </c>
@@ -30374,7 +30374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="931" spans="2:12">
+    <row r="931" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B931" t="s">
         <v>39</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="932" spans="2:12">
+    <row r="932" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B932" t="s">
         <v>39</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="933" spans="2:12">
+    <row r="933" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B933" t="s">
         <v>39</v>
       </c>
@@ -30452,7 +30452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="934" spans="2:12">
+    <row r="934" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B934" t="s">
         <v>39</v>
       </c>
@@ -30478,7 +30478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="935" spans="2:12">
+    <row r="935" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B935" t="s">
         <v>39</v>
       </c>
@@ -30504,7 +30504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="936" spans="2:12">
+    <row r="936" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B936" t="s">
         <v>39</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="937" spans="2:12">
+    <row r="937" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B937" t="s">
         <v>39</v>
       </c>
@@ -30556,7 +30556,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="938" spans="2:12">
+    <row r="938" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B938" t="s">
         <v>39</v>
       </c>
@@ -30582,7 +30582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="939" spans="2:12">
+    <row r="939" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B939" t="s">
         <v>39</v>
       </c>
@@ -30608,7 +30608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="940" spans="2:12">
+    <row r="940" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B940" t="s">
         <v>39</v>
       </c>
@@ -30634,7 +30634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="941" spans="2:12">
+    <row r="941" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B941" t="s">
         <v>39</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="942" spans="2:12">
+    <row r="942" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B942" t="s">
         <v>39</v>
       </c>
@@ -30686,7 +30686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="943" spans="2:12">
+    <row r="943" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B943" t="s">
         <v>39</v>
       </c>
@@ -30712,7 +30712,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="944" spans="2:12">
+    <row r="944" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B944" t="s">
         <v>39</v>
       </c>
@@ -30738,7 +30738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="945" spans="2:12">
+    <row r="945" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B945" t="s">
         <v>39</v>
       </c>
@@ -30764,7 +30764,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="946" spans="2:12">
+    <row r="946" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
         <v>39</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="947" spans="2:12">
+    <row r="947" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B947" t="s">
         <v>39</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="948" spans="2:12">
+    <row r="948" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B948" t="s">
         <v>39</v>
       </c>
@@ -30845,7 +30845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="949" spans="2:12">
+    <row r="949" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B949" t="s">
         <v>39</v>
       </c>
@@ -30871,7 +30871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="950" spans="2:12">
+    <row r="950" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B950" t="s">
         <v>39</v>
       </c>
@@ -30897,7 +30897,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="951" spans="2:12">
+    <row r="951" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B951" t="s">
         <v>39</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="952" spans="2:12">
+    <row r="952" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B952" t="s">
         <v>39</v>
       </c>
@@ -30952,7 +30952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="953" spans="2:12">
+    <row r="953" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B953" t="s">
         <v>39</v>
       </c>
@@ -30978,7 +30978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="954" spans="2:12">
+    <row r="954" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B954" t="s">
         <v>39</v>
       </c>
@@ -31004,7 +31004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="955" spans="2:12">
+    <row r="955" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B955" t="s">
         <v>39</v>
       </c>
@@ -31030,7 +31030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="956" spans="2:12">
+    <row r="956" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B956" t="s">
         <v>39</v>
       </c>
@@ -31056,7 +31056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="957" spans="2:12">
+    <row r="957" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B957" t="s">
         <v>39</v>
       </c>
@@ -31082,7 +31082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="958" spans="2:12">
+    <row r="958" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B958" t="s">
         <v>39</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="959" spans="2:12">
+    <row r="959" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B959" t="s">
         <v>39</v>
       </c>
@@ -31134,7 +31134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="960" spans="2:12">
+    <row r="960" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B960" t="s">
         <v>39</v>
       </c>
@@ -31160,7 +31160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="961" spans="2:12">
+    <row r="961" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B961" t="s">
         <v>39</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="962" spans="2:12">
+    <row r="962" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B962" t="s">
         <v>39</v>
       </c>
@@ -31212,7 +31212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="963" spans="2:12">
+    <row r="963" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B963" t="s">
         <v>39</v>
       </c>
@@ -31238,7 +31238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="964" spans="2:12">
+    <row r="964" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B964" t="s">
         <v>39</v>
       </c>
@@ -31264,7 +31264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="965" spans="2:12">
+    <row r="965" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B965" t="s">
         <v>39</v>
       </c>
@@ -31290,7 +31290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="966" spans="2:12">
+    <row r="966" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B966" t="s">
         <v>39</v>
       </c>
@@ -31316,7 +31316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="967" spans="2:12">
+    <row r="967" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B967" t="s">
         <v>39</v>
       </c>
@@ -31342,7 +31342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="968" spans="2:12">
+    <row r="968" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B968" t="s">
         <v>39</v>
       </c>
@@ -31368,7 +31368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="969" spans="2:12">
+    <row r="969" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B969" t="s">
         <v>39</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="970" spans="2:12">
+    <row r="970" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B970" t="s">
         <v>39</v>
       </c>
@@ -31420,7 +31420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="971" spans="2:12">
+    <row r="971" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B971" t="s">
         <v>39</v>
       </c>
@@ -31446,7 +31446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="972" spans="2:12">
+    <row r="972" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B972" t="s">
         <v>39</v>
       </c>
@@ -31472,7 +31472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="973" spans="2:12">
+    <row r="973" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B973" t="s">
         <v>39</v>
       </c>
@@ -31498,7 +31498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="974" spans="2:12">
+    <row r="974" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B974" t="s">
         <v>39</v>
       </c>
@@ -31524,7 +31524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="975" spans="2:12">
+    <row r="975" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B975" t="s">
         <v>39</v>
       </c>
@@ -31550,7 +31550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="976" spans="2:12">
+    <row r="976" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B976" t="s">
         <v>39</v>
       </c>
@@ -31576,7 +31576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="977" spans="2:12">
+    <row r="977" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B977" t="s">
         <v>39</v>
       </c>
@@ -31602,7 +31602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="978" spans="2:12">
+    <row r="978" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B978" t="s">
         <v>39</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="979" spans="2:12">
+    <row r="979" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B979" t="s">
         <v>39</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="980" spans="2:12">
+    <row r="980" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B980" t="s">
         <v>39</v>
       </c>
@@ -31680,7 +31680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="981" spans="2:12">
+    <row r="981" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B981" t="s">
         <v>39</v>
       </c>
@@ -31706,7 +31706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="982" spans="2:12">
+    <row r="982" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B982" t="s">
         <v>39</v>
       </c>
@@ -31732,7 +31732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="983" spans="2:12">
+    <row r="983" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B983" t="s">
         <v>39</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="984" spans="2:12">
+    <row r="984" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B984" t="s">
         <v>39</v>
       </c>
@@ -31784,7 +31784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="985" spans="2:12">
+    <row r="985" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B985" t="s">
         <v>39</v>
       </c>
@@ -31810,7 +31810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="986" spans="2:12">
+    <row r="986" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B986" t="s">
         <v>39</v>
       </c>
@@ -31836,7 +31836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="987" spans="2:12">
+    <row r="987" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B987" t="s">
         <v>39</v>
       </c>
@@ -31862,7 +31862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="988" spans="2:12">
+    <row r="988" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B988" t="s">
         <v>39</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="989" spans="2:12">
+    <row r="989" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B989" t="s">
         <v>39</v>
       </c>
@@ -31914,7 +31914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="990" spans="2:12">
+    <row r="990" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B990" t="s">
         <v>39</v>
       </c>
@@ -31940,7 +31940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="991" spans="2:12">
+    <row r="991" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B991" t="s">
         <v>39</v>
       </c>
@@ -31966,7 +31966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="992" spans="2:12">
+    <row r="992" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B992" t="s">
         <v>39</v>
       </c>
@@ -31992,7 +31992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="993" spans="2:12">
+    <row r="993" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B993" t="s">
         <v>39</v>
       </c>
@@ -32018,7 +32018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="994" spans="2:12">
+    <row r="994" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B994" t="s">
         <v>39</v>
       </c>
@@ -32044,7 +32044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="995" spans="2:12">
+    <row r="995" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B995" t="s">
         <v>39</v>
       </c>
@@ -32070,7 +32070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="996" spans="2:12">
+    <row r="996" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B996" t="s">
         <v>39</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="997" spans="2:12">
+    <row r="997" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B997" t="s">
         <v>39</v>
       </c>
@@ -32122,7 +32122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="998" spans="2:12">
+    <row r="998" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B998" t="s">
         <v>39</v>
       </c>
@@ -32148,7 +32148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="999" spans="2:12">
+    <row r="999" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B999" t="s">
         <v>39</v>
       </c>
@@ -32174,7 +32174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1000" spans="2:12">
+    <row r="1000" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1000" t="s">
         <v>39</v>
       </c>
@@ -32200,7 +32200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1001" spans="2:12">
+    <row r="1001" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1001" t="s">
         <v>39</v>
       </c>
@@ -32226,7 +32226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1002" spans="2:12">
+    <row r="1002" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1002" t="s">
         <v>39</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1003" spans="2:12">
+    <row r="1003" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1003" t="s">
         <v>39</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1004" spans="2:12">
+    <row r="1004" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1004" t="s">
         <v>39</v>
       </c>
@@ -32304,7 +32304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1005" spans="2:12">
+    <row r="1005" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1005" t="s">
         <v>39</v>
       </c>
@@ -32330,7 +32330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1006" spans="2:12">
+    <row r="1006" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
         <v>39</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1007" spans="2:12">
+    <row r="1007" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1007" t="s">
         <v>39</v>
       </c>
@@ -32382,7 +32382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1008" spans="2:12">
+    <row r="1008" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1008" t="s">
         <v>39</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1009" spans="2:12">
+    <row r="1009" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1009" t="s">
         <v>39</v>
       </c>
@@ -32434,7 +32434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1010" spans="2:12">
+    <row r="1010" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1010" t="s">
         <v>39</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1011" spans="2:12">
+    <row r="1011" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1011" t="s">
         <v>39</v>
       </c>
@@ -32486,7 +32486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1012" spans="2:12">
+    <row r="1012" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
         <v>39</v>
       </c>
@@ -32512,7 +32512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1013" spans="2:12">
+    <row r="1013" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1013" t="s">
         <v>39</v>
       </c>
@@ -32538,7 +32538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1014" spans="2:12">
+    <row r="1014" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1014" t="s">
         <v>39</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1015" spans="2:12">
+    <row r="1015" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1015" t="s">
         <v>39</v>
       </c>
@@ -32590,7 +32590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1016" spans="2:12">
+    <row r="1016" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1016" t="s">
         <v>39</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1017" spans="2:12">
+    <row r="1017" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1017" t="s">
         <v>39</v>
       </c>
@@ -32642,7 +32642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1018" spans="2:12">
+    <row r="1018" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1018" t="s">
         <v>39</v>
       </c>
@@ -32668,7 +32668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1019" spans="2:12">
+    <row r="1019" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1019" t="s">
         <v>39</v>
       </c>
@@ -32694,7 +32694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1020" spans="2:12">
+    <row r="1020" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1020" t="s">
         <v>39</v>
       </c>
@@ -32720,7 +32720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1021" spans="2:12">
+    <row r="1021" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1021" t="s">
         <v>39</v>
       </c>
@@ -32746,7 +32746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1022" spans="2:12">
+    <row r="1022" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1022" t="s">
         <v>39</v>
       </c>
@@ -32772,7 +32772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1023" spans="2:12">
+    <row r="1023" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1023" t="s">
         <v>39</v>
       </c>
@@ -32798,7 +32798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1024" spans="2:12">
+    <row r="1024" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1024" t="s">
         <v>39</v>
       </c>
@@ -32824,7 +32824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1025" spans="2:12">
+    <row r="1025" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
         <v>39</v>
       </c>
@@ -32850,7 +32850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1026" spans="2:12">
+    <row r="1026" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1026" t="s">
         <v>39</v>
       </c>
@@ -32876,7 +32876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1027" spans="2:12">
+    <row r="1027" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1027" t="s">
         <v>39</v>
       </c>
@@ -32902,7 +32902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1028" spans="2:12">
+    <row r="1028" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1028" t="s">
         <v>39</v>
       </c>
@@ -32928,7 +32928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1029" spans="2:12">
+    <row r="1029" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1029" t="s">
         <v>39</v>
       </c>
@@ -32954,7 +32954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1030" spans="2:12">
+    <row r="1030" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1030" t="s">
         <v>39</v>
       </c>
@@ -32980,7 +32980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1031" spans="2:12">
+    <row r="1031" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1031" t="s">
         <v>39</v>
       </c>
@@ -33006,7 +33006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1032" spans="2:12">
+    <row r="1032" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1032" t="s">
         <v>39</v>
       </c>
@@ -33032,7 +33032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1033" spans="2:12">
+    <row r="1033" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1033" t="s">
         <v>39</v>
       </c>
@@ -33058,7 +33058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1034" spans="2:12">
+    <row r="1034" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1034" t="s">
         <v>39</v>
       </c>
@@ -33084,7 +33084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1035" spans="2:12">
+    <row r="1035" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1035" t="s">
         <v>39</v>
       </c>
@@ -33110,7 +33110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1036" spans="2:12">
+    <row r="1036" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1036" t="s">
         <v>39</v>
       </c>
@@ -33136,7 +33136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1037" spans="2:12">
+    <row r="1037" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1037" t="s">
         <v>39</v>
       </c>
@@ -33162,7 +33162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1038" spans="2:12">
+    <row r="1038" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1038" t="s">
         <v>39</v>
       </c>
@@ -33188,7 +33188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1039" spans="2:12">
+    <row r="1039" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
         <v>39</v>
       </c>
@@ -33214,7 +33214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1040" spans="2:12">
+    <row r="1040" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1040" t="s">
         <v>39</v>
       </c>
@@ -33240,7 +33240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1041" spans="2:12">
+    <row r="1041" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1041" t="s">
         <v>39</v>
       </c>
@@ -33272,7 +33272,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="1042" spans="2:12">
+    <row r="1042" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1042" t="s">
         <v>39</v>
       </c>
@@ -33304,7 +33304,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="1043" spans="2:12">
+    <row r="1043" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
         <v>77</v>
       </c>
@@ -33330,7 +33330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1044" spans="2:12">
+    <row r="1044" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1044" t="s">
         <v>77</v>
       </c>
@@ -33356,7 +33356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1045" spans="2:12">
+    <row r="1045" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1045" t="s">
         <v>276</v>
       </c>
@@ -33382,7 +33382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1046" spans="2:12">
+    <row r="1046" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1046" t="s">
         <v>276</v>
       </c>
@@ -33408,7 +33408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1047" spans="2:12">
+    <row r="1047" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1047" t="s">
         <v>276</v>
       </c>
@@ -33434,7 +33434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1048" spans="2:12">
+    <row r="1048" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1048" t="s">
         <v>276</v>
       </c>
@@ -33460,7 +33460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1049" spans="2:12">
+    <row r="1049" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1049" t="s">
         <v>276</v>
       </c>
@@ -33486,7 +33486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1050" spans="2:12">
+    <row r="1050" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1050" t="s">
         <v>276</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1051" spans="2:12">
+    <row r="1051" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1051" t="s">
         <v>276</v>
       </c>
@@ -33538,7 +33538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1052" spans="2:12">
+    <row r="1052" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1052" t="s">
         <v>276</v>
       </c>
@@ -33564,7 +33564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1053" spans="2:12">
+    <row r="1053" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1053" t="s">
         <v>276</v>
       </c>
@@ -33590,7 +33590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1054" spans="2:12">
+    <row r="1054" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1054" t="s">
         <v>276</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1055" spans="2:12">
+    <row r="1055" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1055" t="s">
         <v>276</v>
       </c>
@@ -33642,7 +33642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1056" spans="2:12">
+    <row r="1056" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1056" t="s">
         <v>276</v>
       </c>
@@ -33668,7 +33668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1057" spans="2:12">
+    <row r="1057" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1057" t="s">
         <v>276</v>
       </c>
@@ -33694,7 +33694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1058" spans="2:12">
+    <row r="1058" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1058" t="s">
         <v>276</v>
       </c>
@@ -33720,7 +33720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1059" spans="2:12">
+    <row r="1059" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1059" t="s">
         <v>276</v>
       </c>
@@ -33746,7 +33746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1060" spans="2:12">
+    <row r="1060" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1060" t="s">
         <v>276</v>
       </c>
@@ -33772,7 +33772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1061" spans="2:12">
+    <row r="1061" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1061" t="s">
         <v>276</v>
       </c>
@@ -33798,7 +33798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1062" spans="2:12">
+    <row r="1062" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1062" t="s">
         <v>276</v>
       </c>
@@ -33824,7 +33824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1063" spans="2:12">
+    <row r="1063" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1063" t="s">
         <v>276</v>
       </c>
@@ -33850,7 +33850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1064" spans="2:12">
+    <row r="1064" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
         <v>276</v>
       </c>
@@ -33876,7 +33876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1065" spans="2:12">
+    <row r="1065" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1065" t="s">
         <v>276</v>
       </c>
@@ -33902,7 +33902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1066" spans="2:12">
+    <row r="1066" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1066" t="s">
         <v>276</v>
       </c>
@@ -33928,7 +33928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1067" spans="2:12">
+    <row r="1067" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1067" t="s">
         <v>276</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1068" spans="2:12">
+    <row r="1068" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1068" t="s">
         <v>276</v>
       </c>
@@ -33980,7 +33980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1069" spans="2:12">
+    <row r="1069" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1069" t="s">
         <v>1339</v>
       </c>
@@ -34006,7 +34006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1070" spans="2:12">
+    <row r="1070" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1070" t="s">
         <v>1339</v>
       </c>
@@ -34032,7 +34032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1071" spans="2:12">
+    <row r="1071" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1071" t="s">
         <v>1339</v>
       </c>
@@ -34058,7 +34058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1072" spans="2:12">
+    <row r="1072" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1072" t="s">
         <v>1339</v>
       </c>
@@ -34084,7 +34084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1073" spans="2:12">
+    <row r="1073" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1073" t="s">
         <v>1339</v>
       </c>
@@ -34110,7 +34110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1074" spans="2:12">
+    <row r="1074" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1074" t="s">
         <v>1339</v>
       </c>
@@ -34136,7 +34136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1075" spans="2:12">
+    <row r="1075" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1075" t="s">
         <v>1339</v>
       </c>
@@ -34162,7 +34162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1076" spans="2:12">
+    <row r="1076" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1076" t="s">
         <v>1339</v>
       </c>
